--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C887ED5-3AEA-4982-9330-DA87A5D22DB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C4C5F-BA62-4AE3-AAB6-E8C95F2412B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2400" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2145" yWindow="3315" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -79,6 +79,31 @@
   <si>
     <t>sell_price</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>najya_start_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナジャのお菓子作りの基本</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヅク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kosu</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -461,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -474,7 +499,7 @@
     <col min="3" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,8 +515,14 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -508,23 +539,59 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1500</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>750</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C4C5F-BA62-4AE3-AAB6-E8C95F2412B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF1D7C-F906-4315-B274-5B63A90936EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="3315" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1800" yWindow="2970" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF1D7C-F906-4315-B274-5B63A90936EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B9990-86D1-484C-B8E6-171E56127895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2970" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3075" yWindow="3420" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>kosu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list_hyouji_on</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -497,9 +501,10 @@
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,8 +526,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -543,10 +551,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>ROW()-2</f>
         <v>1</v>
@@ -569,8 +580,11 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <f>ROW()-2</f>
         <v>2</v>
@@ -591,11 +605,15 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B9990-86D1-484C-B8E6-171E56127895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFAB46-DE41-4D5E-8266-8D759C534191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3420" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -107,6 +107,17 @@
   </si>
   <si>
     <t>list_hyouji_on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_cream_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスクリームの書</t>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -490,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -611,6 +622,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFAB46-DE41-4D5E-8266-8D759C534191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492ECEC1-2215-4C76-B634-E4231C966FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4365" yWindow="2355" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -118,6 +118,17 @@
     <rPh sb="8" eb="9">
       <t>ショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単！ねこクッキーのレシピ</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev02_neko_cookie_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -501,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -574,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -589,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -601,16 +612,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -628,24 +639,51 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <v>750</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>250</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492ECEC1-2215-4C76-B634-E4231C966FD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE5A970-1C7A-4E10-907A-A1A9109995B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2355" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="-360" yWindow="2190" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -39,10 +39,6 @@
   <si>
     <t>ev_ItemID</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ev01_orange_cookie_recipi</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>nameHyouji</t>
@@ -128,7 +124,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ev02_neko_cookie_recipi</t>
+    <t>オレンジネコクッキー閃きのメモ</t>
+    <rPh sb="10" eb="11">
+      <t>ヒラメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev00_orange_cookie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev01_neko_cookie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev02_orangeneko_cookie_memo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -512,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -534,22 +545,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -558,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -585,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -612,10 +623,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -630,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -639,16 +650,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -666,24 +677,51 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1500</v>
+      </c>
+      <c r="E6">
+        <v>750</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f>ROW()-2</f>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
         <v>500</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>250</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE5A970-1C7A-4E10-907A-A1A9109995B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92783E2-BC87-4AA9-9B70-FC8362369F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="2190" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4200" yWindow="2415" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -140,6 +140,17 @@
   </si>
   <si>
     <t>ev02_orangeneko_cookie_memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィナンシェのレシピ＜初級＞</t>
+    <rPh sb="11" eb="13">
+      <t>ショキュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -523,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -565,7 +576,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -592,7 +603,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -619,7 +630,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -646,7 +657,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -673,7 +684,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -700,7 +711,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -723,6 +734,33 @@
       </c>
       <c r="H7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>150</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92783E2-BC87-4AA9-9B70-FC8362369F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66BBF7D-8856-4F85-B7D2-8D315E1CC62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2415" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1800" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66BBF7D-8856-4F85-B7D2-8D315E1CC62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E01C64-EC68-4233-B22A-6BB85CA8E53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1455" yWindow="2145" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -546,6 +546,7 @@
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E01C64-EC68-4233-B22A-6BB85CA8E53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463297F-6B39-4082-BD7D-C1B953CC3249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2145" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1800" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -150,6 +150,33 @@
     <t>フィナンシェのレシピ＜初級＞</t>
     <rPh sb="11" eb="13">
       <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>non</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小麦粉と砂糖とバター
+&lt;color=#0000FFFF&gt;2 : 1 : 1 &lt;/color&gt;
+で混ぜると良いらしいぜ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#0000FFFF&gt;卵と砂糖、はちみつを混ぜたアパレイユ（＝生地）&lt;/color&gt;を作る。
+②&lt;color=#0000FFFF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+③①と②を合わせ、じっくり混ぜつつ、&lt;color=#0000FFFF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="118" eb="119">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>シア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -215,11 +242,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -534,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -546,10 +576,10 @@
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="32.875" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,8 +604,11 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
@@ -601,8 +634,11 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -628,8 +664,11 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -655,8 +694,11 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -682,8 +724,11 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -709,8 +754,11 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -736,8 +784,11 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -762,6 +813,9 @@
       </c>
       <c r="H8">
         <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463297F-6B39-4082-BD7D-C1B953CC3249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D65A75-18E1-457C-B5F4-D7604C8ABAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3180" yWindow="3345" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>non</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小麦粉と砂糖とバター
-&lt;color=#0000FFFF&gt;2 : 1 : 1 &lt;/color&gt;
-で混ぜると良いらしいぜ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -177,6 +171,54 @@
     </rPh>
     <rPh sb="160" eb="162">
       <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カリカリサクサクラスクのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小麦粉と砂糖とバター
+&lt;color=#0080FFFF&gt;2 : 1 : 1 &lt;/color&gt;
+で混ぜると良いらしいぜ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【カリカリサクサク　ラスクのレシピ】
+&lt;color=#0080FFFF&gt;バゲット &lt;/color&gt;　を薄くスライスして、10分程度カラ焼きする。
+&lt;color=#0080FFFF&gt;砂糖 &lt;/color&gt;をまぶす！
+最後にオーブンで焼き上げれば、出来上がり！</t>
+    <rPh sb="52" eb="53">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>デキア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -564,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -610,7 +652,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -665,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -758,16 +800,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -779,43 +821,73 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="206.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>500</v>
       </c>
       <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
         <v>150</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D65A75-18E1-457C-B5F4-D7604C8ABAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE3C5D-BEF5-4183-AFA4-43AB0229FB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3345" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -162,19 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①&lt;color=#0000FFFF&gt;卵と砂糖、はちみつを混ぜたアパレイユ（＝生地）&lt;/color&gt;を作る。
-②&lt;color=#0000FFFF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
-③①と②を合わせ、じっくり混ぜつつ、&lt;color=#0000FFFF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="118" eb="119">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カリカリサクサクラスクのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,35 +176,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ（＝生地）を作る。
+②&lt;color=#0000FFFF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+①と②を合わせ、じっくり混ぜつつ、&lt;color=#0000FFFF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="119" eb="120">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【カリカリサクサク　ラスクのレシピ】
-&lt;color=#0080FFFF&gt;バゲット &lt;/color&gt;　を薄くスライスして、10分程度カラ焼きする。
-&lt;color=#0080FFFF&gt;砂糖 &lt;/color&gt;をまぶす！
+&lt;color=#0080FFFF&gt;バゲット &lt;/color&gt;　を薄くスライスして、カラ焼きする。
+&lt;color=#0080FFFF&gt;砂糖 &lt;/color&gt;をまぶす。
 最後にオーブンで焼き上げれば、出来上がり！</t>
     <rPh sb="52" eb="53">
       <t>ウス</t>
     </rPh>
     <rPh sb="63" eb="64">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="68" eb="69">
       <t>ヤ</t>
     </rPh>
-    <rPh sb="92" eb="94">
+    <rPh sb="87" eb="89">
       <t>サトウ</t>
     </rPh>
-    <rPh sb="110" eb="112">
+    <rPh sb="105" eb="107">
       <t>サイゴ</t>
     </rPh>
-    <rPh sb="118" eb="119">
+    <rPh sb="113" eb="114">
       <t>ヤ</t>
     </rPh>
-    <rPh sb="120" eb="121">
+    <rPh sb="115" eb="116">
       <t>ア</t>
     </rPh>
-    <rPh sb="125" eb="128">
+    <rPh sb="120" eb="123">
       <t>デキア</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -608,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -806,10 +800,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -860,7 +854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="206.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="225" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -887,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE3C5D-BEF5-4183-AFA4-43AB0229FB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADECF2EE-2305-441D-AE02-D5306220E340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADECF2EE-2305-441D-AE02-D5306220E340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC12F0D-CE2D-4FF9-9D98-881708E9DD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3435" yWindow="2520" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -213,6 +215,60 @@
     </rPh>
     <rPh sb="120" eb="123">
       <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バゲットのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【バゲットのレシピ】
+プリン姉さんの直伝！
+小麦粉：水　＝　
+&lt;color=#0080FFFF&gt;４：１&lt;/color&gt;
+ちょっと粉っぽく固いらしい。
+もう少し小麦粉の量を減らせば、
+ラスク向けに良いかも！</t>
+    <rPh sb="14" eb="15">
+      <t>ネエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジキデン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -646,7 +702,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -794,16 +850,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="225" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -821,19 +877,19 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -848,39 +904,69 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="225" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>500</v>
       </c>
       <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="225" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
         <v>150</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC12F0D-CE2D-4FF9-9D98-881708E9DD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB62EAA2-10AF-40E7-AD9A-BBF4A7573FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2520" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView minimized="1" xWindow="3390" yWindow="2385" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -269,6 +269,63 @@
     </rPh>
     <rPh sb="102" eb="103">
       <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マフィンのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maffin_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crepe_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレープのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>princesstota_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンセストータのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビスコッティのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bisucouti_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・アーモンド&lt;/color&gt;を混ぜたアパレイユ＜アーモンド＞を作る。
+②&lt;color=#0000FFFF&gt;小麦粉&lt;/color&gt;を混ぜる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="78" eb="81">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
+②&lt;color=#0000FFFF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+①と②を合わせ、じっくり混ぜつつ、&lt;color=#0000FFFF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="119" eb="120">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -702,7 +759,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A10" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -730,7 +787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -850,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="225" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -880,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="150" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -940,7 +997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="225" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -967,6 +1024,126 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB62EAA2-10AF-40E7-AD9A-BBF4A7573FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C1E8D-2407-45D6-B012-D7DA315516F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3390" yWindow="2385" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4005" yWindow="2205" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -327,6 +327,42 @@
     <rPh sb="161" eb="163">
       <t>シア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/bugget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/maffin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/crepe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/financier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/icecream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/rusk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/Book01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -713,64 +749,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="41.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -778,29 +818,32 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -808,29 +851,32 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -841,26 +887,29 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -873,277 +922,307 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1500</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>750</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>500</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>250</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>500</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>250</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>500</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>250</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>500</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>150</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>500</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>150</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>500</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>150</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>500</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>150</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>500</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>150</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C1E8D-2407-45D6-B012-D7DA315516F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CAAF8D-1F33-4AE4-A3FE-84BD8DCEC09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="2205" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3810" yWindow="2325" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>rusk_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小麦粉と砂糖とバター
-&lt;color=#0080FFFF&gt;2 : 1 : 1 &lt;/color&gt;
-で混ぜると良いらしいぜ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -227,10 +221,115 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>マフィンのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maffin_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crepe_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレープのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>princesstota_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンセストータのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビスコッティのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bisucouti_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・アーモンド&lt;/color&gt;を混ぜたアパレイユ＜アーモンド＞を作る。
+②&lt;color=#0000FFFF&gt;小麦粉&lt;/color&gt;を混ぜる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="78" eb="81">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fileName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/bugget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/maffin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/crepe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/financier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/icecream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/rusk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/Book01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=#FDFF80FF&gt;砂糖にたまご、牛乳&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ＜ミルク＞）に、&lt;color=#FDFF80FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
+薄く焼いて、完成！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=#FDFF80FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ）に、小麦粉をふるいながら混ぜる。
+カップに入れて、オーブンで焼く！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#FDFF80FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
+②&lt;color=#FDFF80FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+①と②を合わせ、じっくり混ぜつつ、&lt;color=#FDFF80FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="119" eb="120">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【バゲットのレシピ】
 プリン姉さんの直伝！
 小麦粉：水　＝　
-&lt;color=#0080FFFF&gt;４：１&lt;/color&gt;
+&lt;color=#FDFF80FF&gt;４：１&lt;/color&gt;
 ちょっと粉っぽく固いらしい。
 もう少し小麦粉の量を減らせば、
 ラスク向けに良いかも！</t>
@@ -273,96 +372,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マフィンのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maffin_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>crepe_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クレープのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>princesstota_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プリンセストータのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビスコッティのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bisucouti_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・アーモンド&lt;/color&gt;を混ぜたアパレイユ＜アーモンド＞を作る。
-②&lt;color=#0000FFFF&gt;小麦粉&lt;/color&gt;を混ぜる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="78" eb="81">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
-②&lt;color=#0000FFFF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
-①と②を合わせ、じっくり混ぜつつ、&lt;color=#0000FFFF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="119" eb="120">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fileName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/pan_cake</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/bugget</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/maffin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/crepe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/financier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/icecream</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/rusk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Icon/Book01</t>
+    <t>小麦粉と砂糖とバター
+&lt;color=#FDFF80FF&gt;2 : 1 : 1 &lt;/color&gt;
+で混ぜると良いらしいぜ！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -751,11 +763,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -765,12 +777,12 @@
     <col min="10" max="10" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -797,13 +809,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -830,13 +842,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -860,16 +872,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -896,13 +908,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -929,13 +941,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -962,19 +974,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -992,16 +1004,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -1025,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1061,13 +1073,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1091,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1124,22 +1136,22 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1157,22 +1169,22 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1190,22 +1202,22 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -1223,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CAAF8D-1F33-4AE4-A3FE-84BD8DCEC09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6359B4-804F-4226-963C-E63930C8FB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2325" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -172,47 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ（＝生地）を作る。
-②&lt;color=#0000FFFF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
-①と②を合わせ、じっくり混ぜつつ、&lt;color=#0000FFFF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="119" eb="120">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【カリカリサクサク　ラスクのレシピ】
-&lt;color=#0080FFFF&gt;バゲット &lt;/color&gt;　を薄くスライスして、カラ焼きする。
-&lt;color=#0080FFFF&gt;砂糖 &lt;/color&gt;をまぶす。
-最後にオーブンで焼き上げれば、出来上がり！</t>
-    <rPh sb="52" eb="53">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bugget_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,18 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①&lt;color=#0000FFFF&gt;たまご・砂糖・アーモンド&lt;/color&gt;を混ぜたアパレイユ＜アーモンド＞を作る。
-②&lt;color=#0000FFFF&gt;小麦粉&lt;/color&gt;を混ぜる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="78" eb="81">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fileName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,38 +245,13 @@
   </si>
   <si>
     <t>Icon/Book01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;color=#FDFF80FF&gt;砂糖にたまご、牛乳&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ＜ミルク＞）に、&lt;color=#FDFF80FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
-薄く焼いて、完成！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;color=#FDFF80FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ）に、小麦粉をふるいながら混ぜる。
-カップに入れて、オーブンで焼く！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①&lt;color=#FDFF80FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
-②&lt;color=#FDFF80FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
-①と②を合わせ、じっくり混ぜつつ、&lt;color=#FDFF80FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="119" eb="120">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【バゲットのレシピ】
 プリン姉さんの直伝！
 小麦粉：水　＝　
-&lt;color=#FDFF80FF&gt;４：１&lt;/color&gt;
+&lt;color=#BA9535FF&gt;４：１&lt;/color&gt;
 ちょっと粉っぽく固いらしい。
 もう少し小麦粉の量を減らせば、
 ラスク向けに良いかも！</t>
@@ -372,9 +294,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>【カリカリサクサク　ラスクのレシピ】
+&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;　を薄くスライスして、カラ焼きする。
+&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶす。
+最後にオーブンで焼き上げれば、出来上がり！</t>
+    <rPh sb="52" eb="53">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#BA9535FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
+②&lt;color=#BA9535FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+①と②を合わせ、じっくり混ぜつつ、&lt;color=#BA9535FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="119" eb="120">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=#BA9535FF&gt;砂糖にたまご、牛乳&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
+薄く焼いて、完成！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①&lt;color=#BA9535FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ（＝生地）を作る。
+②&lt;color=#BA9535FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+①と②を合わせ、じっくり混ぜつつ、&lt;color=#BA9535FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。</t>
+    <rPh sb="119" eb="120">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ）に、小麦粉をふるいながら混ぜる。
+そこに、少量の&lt;color=#BA9535FF&gt;塩&lt;/color&gt;を加える。
+カップに入れて、オーブンで焼く！</t>
+    <rPh sb="81" eb="83">
+      <t>ショウリョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>小麦粉と砂糖とバター
-&lt;color=#FDFF80FF&gt;2 : 1 : 1 &lt;/color&gt;
+&lt;color=#BA9535FF&gt;2 : 1 : 1 &lt;/color&gt;
 で混ぜると良いらしいぜ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビスコッティは油分を一切使わない
+①&lt;color=#BA9535FF&gt;ベーキングミックス&lt;/color&gt;と&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を混ぜて生地を作る。
+②ベーキングミックスは、&lt;color=#BA9535FF&gt;ベーキングパウダーに小麦粉&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ合わせて作る。粉を混ぜたもの
+生地を寝かせ、焼き上げたら完成♪</t>
+    <rPh sb="185" eb="186">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/biscouti</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -764,7 +779,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -782,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -815,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -848,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -872,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -881,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -914,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -947,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -980,13 +995,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1004,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1013,7 +1028,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -1037,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1046,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1079,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -1103,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1112,13 +1127,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1145,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1169,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1178,13 +1193,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1202,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1211,13 +1226,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -1235,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6359B4-804F-4226-963C-E63930C8FB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315BD60A-2172-4B26-98B6-5E84B67F3ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView minimized="1" xWindow="3345" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -115,13 +115,6 @@
     <t>アイスクリームの書</t>
     <rPh sb="8" eb="9">
       <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単！ねこクッキーのレシピ</t>
-    <rPh sb="0" eb="2">
-      <t>カンタン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,6 +383,120 @@
   </si>
   <si>
     <t>Items/biscouti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナジャの簡単！ねこクッキーのレシピ</t>
+    <rPh sb="4" eb="6">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラゼリーのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライムゼリー　透明でぷるぷる♪きれいなゼリーの作り方
+ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
+冷やす。完成♪</t>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slimejelly_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/slimejelly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュークリームのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくさくふわふわ　シュークリームの基本♪
+①アパレイユを最初に作る。
+②そこに小麦粉を混ぜ、土台となるパイ生地を作る。パイ生地を焼き上げる。
+③仕上げに生クリームをサンドして出来上がり♪
+※お好みで、フルーツなどをサンドしてもおいしい。</t>
+    <rPh sb="17" eb="19">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>コノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creampuff_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/creampuff</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -797,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -821,19 +928,19 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -854,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -863,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -887,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -896,13 +1003,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -920,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -929,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -953,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -962,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -986,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -995,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1019,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1028,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1052,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1061,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1085,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1094,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1118,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1127,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1151,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1160,13 +1267,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1184,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1193,13 +1300,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1217,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1226,13 +1333,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -1250,7 +1357,73 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315BD60A-2172-4B26-98B6-5E84B67F3ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB931D3F-AD7E-46B0-9D75-118F12B51B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3345" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4425" yWindow="2955" windowWidth="23505" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -241,13 +241,161 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【バゲットのレシピ】
+    <t>Items/biscouti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナジャの簡単！ねこクッキーのレシピ</t>
+    <rPh sb="4" eb="6">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スラゼリーのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slimejelly_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/slimejelly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュークリームのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creampuff_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/creampuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ）に、小麦粉をふるいながら混ぜる。
+そこに、少量の&lt;color=#BA9535FF&gt;塩&lt;/color&gt;を加える。
+カップに入れて、オーブンで焼く！
+</t>
+    <rPh sb="81" eb="83">
+      <t>ショウリョウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスコッティは油分を一切使わない
+①&lt;color=#BA9535FF&gt;ベーキングミックス&lt;/color&gt;と&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を混ぜて生地を作る。
+②ベーキングミックスは、&lt;color=#BA9535FF&gt;ベーキングパウダーに小麦粉&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ合わせて作る。粉を混ぜたもの
+生地を寝かせ、焼き上げたら完成♪
+</t>
+    <rPh sb="185" eb="186">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スライムゼリー　透明でぷるぷる♪きれいなゼリーの作り方
+ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
+冷やす。完成♪
+</t>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、牛乳&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
+薄く焼いて、完成！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①&lt;color=#BA9535FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
+②&lt;color=#BA9535FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
+①と②を合わせ、じっくり混ぜつつ、&lt;color=#BA9535FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
+生地を寝かせ、焼き上げたら完成。
+</t>
+    <rPh sb="119" eb="120">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
+&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;　を薄くスライスして、カラ焼きする。
+&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶす。
+最後にオーブンで焼き上げれば、出来上がり！
+</t>
+    <rPh sb="52" eb="53">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【バゲットのレシピ】
 プリン姉さんの直伝！
 小麦粉：水　＝　
 &lt;color=#BA9535FF&gt;４：１&lt;/color&gt;
 ちょっと粉っぽく固いらしい。
 もう少し小麦粉の量を減らせば、
-ラスク向けに良いかも！</t>
+ラスク向けに良いかも！
+</t>
     <rPh sb="14" eb="15">
       <t>ネエ</t>
     </rPh>
@@ -287,216 +435,151 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【カリカリサクサク　ラスクのレシピ】
-&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;　を薄くスライスして、カラ焼きする。
-&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶす。
-最後にオーブンで焼き上げれば、出来上がり！</t>
-    <rPh sb="52" eb="53">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①&lt;color=#BA9535FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ＜ハニー＞を作る。
-②&lt;color=#BA9535FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
-①と②を合わせ、じっくり混ぜつつ、&lt;color=#BA9535FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="119" eb="120">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;color=#BA9535FF&gt;砂糖にたまご、牛乳&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
-薄く焼いて、完成！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①&lt;color=#BA9535FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜたアパレイユ（＝生地）を作る。
-②&lt;color=#BA9535FF&gt;＜小麦粉＞＋＜アーモンドプードル＞&lt;/color&gt;を混ぜる。
-①と②を合わせ、じっくり混ぜつつ、&lt;color=#BA9535FF&gt;＜焦がしバター＞&lt;/color&gt;を加えて仕上げる。
-生地を寝かせ、焼き上げたら完成。</t>
-    <rPh sb="119" eb="120">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ）に、小麦粉をふるいながら混ぜる。
-そこに、少量の&lt;color=#BA9535FF&gt;塩&lt;/color&gt;を加える。
-カップに入れて、オーブンで焼く！</t>
-    <rPh sb="81" eb="83">
-      <t>ショウリョウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小麦粉と砂糖とバター
+    <t xml:space="preserve">小麦粉と砂糖とバター
 &lt;color=#BA9535FF&gt;2 : 1 : 1 &lt;/color&gt;
-で混ぜると良いらしいぜ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビスコッティは油分を一切使わない
-①&lt;color=#BA9535FF&gt;ベーキングミックス&lt;/color&gt;と&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を混ぜて生地を作る。
-②ベーキングミックスは、&lt;color=#BA9535FF&gt;ベーキングパウダーに小麦粉&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ合わせて作る。粉を混ぜたもの
-生地を寝かせ、焼き上げたら完成♪</t>
-    <rPh sb="185" eb="186">
-      <t>コナ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/biscouti</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナジャの簡単！ねこクッキーのレシピ</t>
-    <rPh sb="4" eb="6">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スラゼリーのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スライムゼリー　透明でぷるぷる♪きれいなゼリーの作り方
-ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
-冷やす。完成♪</t>
-    <rPh sb="8" eb="10">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slimejelly_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/slimejelly</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シュークリームのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さくさくふわふわ　シュークリームの基本♪
-①アパレイユを最初に作る。
-②そこに小麦粉を混ぜ、土台となるパイ生地を作る。パイ生地を焼き上げる。
-③仕上げに生クリームをサンドして出来上がり♪
-※お好みで、フルーツなどをサンドしてもおいしい。</t>
+で混ぜると良いらしいぜ！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">さくさくふわふわ　シュークリームの基本♪
+①牛乳・塩・バターを混ぜる。
+②そこにさらに砂糖を混ぜ、お鍋にかけて、混ぜながら沸騰させる。
+③一度火を止め、小麦粉・たまごを入れ、混ぜる。
+④出来上がった生地を、絞り袋にいれ、生地を絞りだす。
+⑤焼く。うまくいけば、ふわふわに生地がふくらみ、完成！
+⑥仕上げに、クリームを挟んで、召し上がれ♪
+☆ホイップクリームの作り方
+①生クリームと砂糖を準備します。
+②泡だて器で根気よく混ぜましょう！するとだんだん、ねっとりとクリーム状になります。
+③クリームを、絞り袋にいれたら、完成！
+ケーキなどにデコレーションすると、Good！！
+</t>
     <rPh sb="17" eb="19">
       <t>キホン</t>
     </rPh>
-    <rPh sb="29" eb="31">
-      <t>サイショ</t>
+    <rPh sb="23" eb="25">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シオ</t>
     </rPh>
     <rPh sb="32" eb="33">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="97" eb="100">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="186" eb="187">
       <t>ツク</t>
     </rPh>
-    <rPh sb="41" eb="44">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="188" eb="189">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>コンキ</t>
+    </rPh>
+    <rPh sb="219" eb="220">
       <t>マ</t>
     </rPh>
-    <rPh sb="48" eb="50">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="90" eb="93">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>コノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>creampuff_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/creampuff</t>
+    <rPh sb="243" eb="244">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>カンセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -885,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -976,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -994,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1126,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1159,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1225,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1258,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1291,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1300,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -1324,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1333,13 +1416,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -1357,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1366,13 +1449,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -1390,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1423,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB931D3F-AD7E-46B0-9D75-118F12B51B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C1D628-658B-4DC7-B259-619B733B91E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2955" windowWidth="23505" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3945" yWindow="3360" windowWidth="23505" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -580,6 +580,30 @@
     <rPh sb="268" eb="270">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンプルドーナツのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>donuts_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">揚げたて　さっくりドーナツの基本♪
+うまい！！
+</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/donuts</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -966,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1016,7 +1040,7 @@
     </row>
     <row r="2" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1482,13 +1506,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -1506,6 +1530,39 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C1D628-658B-4DC7-B259-619B733B91E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AA7F9-3539-4DA1-B9A7-EB2671629B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="3360" windowWidth="23505" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2160" yWindow="2295" windowWidth="23505" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -438,11 +438,6 @@
     <t xml:space="preserve">小麦粉と砂糖とバター
 &lt;color=#BA9535FF&gt;2 : 1 : 1 &lt;/color&gt;
 で混ぜると良いらしいぜ！
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,19 +586,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">揚げたて　さっくりドーナツの基本♪
-うまい！！
-</t>
+    <t>Items/donuts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>揚げたて　さっくりドーナツの基本♪
+①&lt;color=#BA9535FF&gt;バター&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖・たまご&lt;/color&gt;を入れ、混ぜ合わせる。
+②出来た生地に、&lt;color=#BA9535FF&gt;小麦粉・ベーキングパウダー&lt;/color&gt;を入れ、よく混ぜ合わせベースとなる生地を作る。
+③少し寝かせた生地を、適度に大きさに切り取り、&lt;color=#BA9535FF&gt;フライヤー&lt;/color&gt;に入れて揚げる。</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
     </rPh>
     <rPh sb="14" eb="16">
       <t>キホン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/donuts</t>
+    <rPh sb="67" eb="69">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>テキド</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プリンセストータの基本
+</t>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Re_flag_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ev_flag_num</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -990,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1002,11 +1077,17 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
     <col min="10" max="10" width="41.125" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1037,8 +1118,14 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
@@ -1070,8 +1157,14 @@
       <c r="J2" t="s">
         <v>22</v>
       </c>
+      <c r="K2">
+        <v>9999</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1103,8 +1196,14 @@
       <c r="J3" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="K3">
+        <v>9999</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1136,8 +1235,14 @@
       <c r="J4" t="s">
         <v>22</v>
       </c>
+      <c r="K4">
+        <v>9999</v>
+      </c>
+      <c r="L4">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1169,8 +1274,14 @@
       <c r="J5" t="s">
         <v>22</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1202,8 +1313,14 @@
       <c r="J6" t="s">
         <v>22</v>
       </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1235,8 +1352,14 @@
       <c r="J7" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1268,8 +1391,14 @@
       <c r="J8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="K8">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1301,8 +1430,14 @@
       <c r="J9" t="s">
         <v>22</v>
       </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1334,8 +1469,14 @@
       <c r="J10" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1367,8 +1508,14 @@
       <c r="J11" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1400,8 +1547,14 @@
       <c r="J12" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="K12">
+        <v>70</v>
+      </c>
+      <c r="L12">
+        <v>70</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1433,8 +1586,14 @@
       <c r="J13" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1466,8 +1625,14 @@
       <c r="J14" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="K14">
+        <v>9999</v>
+      </c>
+      <c r="L14">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1497,22 +1662,28 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -1532,8 +1703,14 @@
       <c r="J16" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="K16">
+        <v>110</v>
+      </c>
+      <c r="L16">
+        <v>110</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1563,12 +1740,18 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2AA7F9-3539-4DA1-B9A7-EB2671629B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BEFD76-72FB-4CDB-B1AD-7F9A155F9D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2295" windowWidth="23505" windowHeight="12060" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView minimized="1" xWindow="2835" yWindow="2160" windowWidth="24090" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -442,142 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">さくさくふわふわ　シュークリームの基本♪
-①牛乳・塩・バターを混ぜる。
-②そこにさらに砂糖を混ぜ、お鍋にかけて、混ぜながら沸騰させる。
-③一度火を止め、小麦粉・たまごを入れ、混ぜる。
-④出来上がった生地を、絞り袋にいれ、生地を絞りだす。
-⑤焼く。うまくいけば、ふわふわに生地がふくらみ、完成！
-⑥仕上げに、クリームを挟んで、召し上がれ♪
-☆ホイップクリームの作り方
-①生クリームと砂糖を準備します。
-②泡だて器で根気よく混ぜましょう！するとだんだん、ねっとりとクリーム状になります。
-③クリームを、絞り袋にいれたら、完成！
-ケーキなどにデコレーションすると、Good！！
-</t>
-    <rPh sb="17" eb="19">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="97" eb="100">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>コンキ</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="243" eb="244">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="259" eb="260">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="261" eb="262">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シンプルドーナツのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -587,82 +451,6 @@
   </si>
   <si>
     <t>Items/donuts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>揚げたて　さっくりドーナツの基本♪
-①&lt;color=#BA9535FF&gt;バター&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖・たまご&lt;/color&gt;を入れ、混ぜ合わせる。
-②出来た生地に、&lt;color=#BA9535FF&gt;小麦粉・ベーキングパウダー&lt;/color&gt;を入れ、よく混ぜ合わせベースとなる生地を作る。
-③少し寝かせた生地を、適度に大きさに切り取り、&lt;color=#BA9535FF&gt;フライヤー&lt;/color&gt;に入れて揚げる。</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="119" eb="122">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>テキド</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -679,6 +467,196 @@
   </si>
   <si>
     <t>Ev_flag_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホイップクリームのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whippedcream_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/whip_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆ホイップクリームの作り方
+①&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を準備します。
+②&lt;color=#FF5CA1FF&gt;泡だて器&lt;/color&gt;で根気よく混ぜましょう！するとだんだん、ねっとりとクリーム状になります。
+③クリームを、&lt;color=#FF5CA1FF&gt;絞り袋&lt;/color&gt;にいれたら、完成！
+ケーキなどにデコレーションすると、Good！！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">揚げたて　さっくりドーナツの基本♪
+①&lt;color=#BA9535FF&gt;バター&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖・たまご&lt;/color&gt;を入れ、混ぜ合わせる。
+②出来た生地に、&lt;color=#BA9535FF&gt;小麦粉・ベーキングパウダー&lt;/color&gt;を入れ、よく混ぜ合わせベースとなる生地を作る。
+③少し寝かせた生地を、適度に大きさに切り取り、&lt;color=#BA9535FF&gt;フライヤー&lt;/color&gt;に入れて揚げる。
+</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>テキド</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">さくさくふわふわ　シュークリームの基本♪
+①&lt;color=#BA9535FF&gt;牛乳・塩・バター&lt;/color&gt;を混ぜる。
+②そこにさらに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;にかけて、混ぜながら沸騰させる。
+③一度火を止め、&lt;color=#BA9535FF&gt;小麦粉・たまご&lt;/color&gt;を入れ、混ぜる。
+④出来上がった生地を、&lt;color=#FF5CA1FF&gt;絞り袋&lt;/color&gt;にいれ、生地を絞りだす。
+⑤焼く。うまくいけば、ふわふわに生地がふくらみ、完成！
+⑥仕上げに、&lt;color=#BA9535FF&gt;クリーム&lt;/color&gt;を挟んで、召し上がれ♪
+</t>
+    <rPh sb="17" eb="19">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="171" eb="174">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="197" eb="200">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="279" eb="281">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="320" eb="321">
+      <t>ア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1065,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1119,15 +1097,15 @@
         <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1662,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -1677,13 +1655,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -1701,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K16">
         <v>110</v>
@@ -1740,13 +1718,52 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K17">
         <v>90</v>
       </c>
       <c r="L17">
         <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>150</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18">
+        <v>120</v>
+      </c>
+      <c r="L18">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BEFD76-72FB-4CDB-B1AD-7F9A155F9D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF18483-A7B6-412F-9E7D-74EA3E907CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2835" yWindow="2160" windowWidth="24090" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -359,35 +359,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
-&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;　を薄くスライスして、カラ焼きする。
-&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶす。
-最後にオーブンで焼き上げれば、出来上がり！
-</t>
-    <rPh sb="52" eb="53">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【バゲットのレシピ】
 プリン姉さんの直伝！
 小麦粉：水　＝　
@@ -656,6 +627,26 @@
     </rPh>
     <rPh sb="320" eb="321">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
+&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
+パンを、&lt;color=#FF5CA1FF&gt;オーブン&lt;/color&gt;でカラ焼きする。
+&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
+</t>
+    <rPh sb="81" eb="82">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="169" eb="172">
+      <t>デキア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1045,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1097,10 +1088,10 @@
         <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1172,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -1328,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>50</v>
@@ -1367,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>40</v>
@@ -1640,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -1655,13 +1646,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -1679,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16">
         <v>110</v>
@@ -1718,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -1733,13 +1724,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -1757,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>120</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF18483-A7B6-412F-9E7D-74EA3E907CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A7AC5-B6CA-4B59-B1F1-D1395F5F0FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2520" windowWidth="24090" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -52,22 +52,6 @@
   </si>
   <si>
     <t>cookie_base_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クッキー生地作り方のレシピ＜初級＞</t>
-    <rPh sb="4" eb="6">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショキュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -647,6 +631,310 @@
     </rPh>
     <rPh sb="169" eb="172">
       <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お菓子の基本＜初級＞</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集めろ！お菓子の材料～身の回り編～</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">いつものクッキーを砂糖抜きで作ると、簡単にノンシュガードロップクッキーが作れます☆
+砂糖ぬきなので、ヘルシーで太らない！
+いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
+エメラルドねこクッキーの完成です☆
+キラキラ輝く宝石の味..！　高貴な甘さに、かすかにメロンのような香りが漂います。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">..近くの森では、様々なフルーツや材料が採れる。
+代表的なものは、オレンジ・ぶどう・ナッツなど。
+また、まれにエメラルドシュガーのような、貴重な砂糖が、岩の間にひっかかってることがある。
+また、探索を何度も続けることで、細かなところまで「探す力」が鍛えられる！
+..探索を多く続けると、鳥たちが多く休んでいる憩いの場所を見つけることができるだろう。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょいバター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">バターはお菓子の基本！
+バターについて教えましょう。
+バターはそのままお菓子に入れてもおいしいですが、
+&lt;color=#FF5CA1FF&gt;小さなお鍋&lt;/color&gt;で熱することで、焦がし風味の香る香ばしいバターが出来ます。
+ねこクッキーのバターを、焦がしバターに変えるだけで、あら不思議！
+風味豊かな、焦がしねこクッキーの完成です。
+簡単なので、ぜひお家で試してみましょうね。（お菓子ソムリエ　タカノ）
+</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="143" eb="146">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>ユタ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>童話：アイスの実の森</t>
+    <rPh sb="0" eb="2">
+      <t>ドウワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">童話：「アイスの実の森」
+..おにいちゃんといもうとは、長くて深い森をひたすら進んでいきます。
+あまりにも森は深いため、帰り道が分からなくなってしまいました。
+「どうしよう？」
+「あ！にいちゃん、みて！　ここの小さな穴から、光がみえるよ！」
+そして二人は穴を進んでいきました。すると..。
+.. パァ～～～～～。キラキラ☆
+「うわぁ～～..。」
+なんと、穴を抜けた先には、カラフルに七色に光り輝く丸い実をつけた木がたくさん！
+ひんやりとしたその実は、すべてアイスで出来ています！
+「にいちゃん！　アイスの実の森だ～！」
+妹は大はしゃぎで.. .. しかし、後ろには悪い魔女が..
+</t>
+    <rPh sb="0" eb="2">
+      <t>ドウワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ナナイロ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ヒカル</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はじめてのパンケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ふわふわ　パンケーキの作り方】
+①まずは、&lt;color=#BA9535FF&gt;砂糖にたまご、牛乳&lt;/color&gt;をよくよく混ぜ混ぜして、生地を作りましょう。
+②次に先ほどの生地に、&lt;color=#BA9535FF&gt;小麦粉とベーキングパウダー&lt;/color&gt;を加え、さらに混ぜます。
+③プレートの上で焼いて、完成です！
+村に伝わる伝統的な味。ほっとする深い味わい。
+温かいうちに召しあがってくださいね。
+</t>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>デントウ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>メ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1034,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1061,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1070,40 +1358,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1124,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -1139,13 +1427,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1163,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>9999</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1178,13 +1466,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1202,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -1217,14 +1505,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -1241,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1256,19 +1544,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E6">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F6">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1277,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
       <c r="L6">
-        <v>9999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1295,37 +1583,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E7">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1337,16 +1625,16 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1358,13 +1646,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>1010</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1373,19 +1661,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1394,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1412,16 +1700,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E10">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -1436,13 +1724,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>1030</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1451,37 +1739,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>500</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L11">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1490,19 +1778,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1514,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1529,19 +1817,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1550,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L13">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1568,13 +1856,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -1592,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="L14">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1607,13 +1895,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -1631,13 +1919,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1646,13 +1934,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -1670,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1685,10 +1973,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -1709,13 +1997,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L17">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1724,13 +2012,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -1748,12 +2036,168 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18">
+        <v>9999</v>
+      </c>
+      <c r="L18">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19">
+        <v>150</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20">
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K18">
+      <c r="K20">
+        <v>110</v>
+      </c>
+      <c r="L20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>150</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22">
         <v>120</v>
       </c>
-      <c r="L18">
+      <c r="L22">
         <v>120</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A7AC5-B6CA-4B59-B1F1-D1395F5F0FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24763718-D0BE-4D81-BD9F-A8E29AA225FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -260,23 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ）に、小麦粉をふるいながら混ぜる。
-そこに、少量の&lt;color=#BA9535FF&gt;塩&lt;/color&gt;を加える。
-カップに入れて、オーブンで焼く！
-</t>
-    <rPh sb="81" eb="83">
-      <t>ショウリョウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ビスコッティは油分を一切使わない
 ①&lt;color=#BA9535FF&gt;ベーキングミックス&lt;/color&gt;と&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を混ぜて生地を作る。
 ②ベーキングミックスは、&lt;color=#BA9535FF&gt;ベーキングパウダーに小麦粉&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ合わせて作る。粉を混ぜたもの
@@ -319,13 +302,6 @@
     <rPh sb="60" eb="62">
       <t>カンセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、牛乳&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
-薄く焼いて、完成！
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -518,98 +494,6 @@
       <t>イ</t>
     </rPh>
     <rPh sb="222" eb="223">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">さくさくふわふわ　シュークリームの基本♪
-①&lt;color=#BA9535FF&gt;牛乳・塩・バター&lt;/color&gt;を混ぜる。
-②そこにさらに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;にかけて、混ぜながら沸騰させる。
-③一度火を止め、&lt;color=#BA9535FF&gt;小麦粉・たまご&lt;/color&gt;を入れ、混ぜる。
-④出来上がった生地を、&lt;color=#FF5CA1FF&gt;絞り袋&lt;/color&gt;にいれ、生地を絞りだす。
-⑤焼く。うまくいけば、ふわふわに生地がふくらみ、完成！
-⑥仕上げに、&lt;color=#BA9535FF&gt;クリーム&lt;/color&gt;を挟んで、召し上がれ♪
-</t>
-    <rPh sb="17" eb="19">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="133" eb="134">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="171" eb="174">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="197" eb="200">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="250" eb="251">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="265" eb="267">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="273" eb="275">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="279" eb="281">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="318" eb="319">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="320" eb="321">
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -935,6 +819,39 @@
     </rPh>
     <rPh sb="192" eb="193">
       <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">さくさくふわふわ　シュークリームの基本♪
+①&lt;color=#BA9535FF&gt;ミルク・塩・バター&lt;/color&gt;を混ぜる。
+②&lt;color=#BA9535FF&gt;小麦粉・たまご&lt;/color&gt;を入れ、さらに混ぜる。
+③&lt;color=#FF5CA1FF&gt;絞り袋&lt;/color&gt;に入れ、絞り出した生地を焼く。
+ふわふわに生地がふくらむ。
+④仕上げに、&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;を挟んで、召し上がれ♪
+</t>
+    <rPh sb="17" eb="19">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、ミルク&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
+薄く焼いて、完成！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて、アパレイユを作る。
+②作った生地（アパレイユ）に、&lt;color=#BA9535FF&gt;小麦粉・塩&lt;/color&gt;をふるいながら混ぜる。
+焼いて完成！
+</t>
+    <rPh sb="88" eb="89">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1324,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1376,10 +1293,10 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1451,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -1550,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1568,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1586,10 +1503,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -1607,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1625,10 +1542,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1646,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1664,10 +1581,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1685,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1703,10 +1620,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>300</v>
@@ -1724,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1763,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>50</v>
@@ -1802,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12">
         <v>40</v>
@@ -1880,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>30</v>
@@ -1919,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="K15">
         <v>60</v>
@@ -1958,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>70</v>
@@ -1997,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>80</v>
@@ -2036,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>9999</v>
@@ -2075,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K19">
         <v>100</v>
@@ -2090,13 +2007,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2114,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K20">
         <v>110</v>
@@ -2153,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21">
         <v>90</v>
@@ -2168,13 +2085,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2192,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K22">
         <v>120</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24763718-D0BE-4D81-BD9F-A8E29AA225FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C4989-2AAA-4495-B409-831B5CB4ACEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3660" yWindow="1905" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
+    <sheet name="02_eventitem_emerald" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -853,6 +854,51 @@
     <rPh sb="113" eb="115">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meid_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイドコスチューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け軸</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kakejiku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい部屋「掛け軸部屋」ができる。</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒカリのメイドコスチューム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1241,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2123,4 +2169,151 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="41.125" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f t="shared" ref="A2:A3" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>9999</v>
+      </c>
+      <c r="L2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3">
+        <v>9999</v>
+      </c>
+      <c r="L3">
+        <v>9999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C4989-2AAA-4495-B409-831B5CB4ACEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE46C27-BB5A-466B-B381-FC64EA1117DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1905" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -899,6 +899,66 @@
   </si>
   <si>
     <t>ヒカリのメイドコスチューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お茶のすすめ</t>
+    <rPh sb="1" eb="2">
+      <t>チャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆お茶の淹れかた
+①茶の素となる&lt;color=#BA9535FF&gt;葉っぱ・花&lt;/color&gt;を集めましょう。
+②集めたお茶っぱに、&lt;color=#BA9535FF&gt;水&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でふつふつと沸かしたら出来上がり！
+</t>
+    <rPh sb="2" eb="3">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>デキア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1285,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1347,7 +1407,7 @@
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A23" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1702,37 +1762,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="F11">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>1040</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1741,13 +1801,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1759,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1780,13 +1840,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1801,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1819,19 +1879,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1840,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1858,13 +1918,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -1882,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1897,13 +1957,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -1921,13 +1981,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1936,13 +1996,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -1960,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1975,13 +2035,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -1999,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>9999</v>
+        <v>80</v>
       </c>
       <c r="L18">
-        <v>9999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2014,13 +2074,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2038,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2053,13 +2113,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2077,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2092,13 +2152,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2116,13 +2176,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L21">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2131,13 +2191,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2155,12 +2215,51 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23">
+        <v>150</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>120</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>120</v>
       </c>
     </row>
@@ -2175,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE46C27-BB5A-466B-B381-FC64EA1117DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D023BA-70FA-4908-B76A-C3D938E84E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3510" yWindow="3315" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -500,26 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
-&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
-パンを、&lt;color=#FF5CA1FF&gt;オーブン&lt;/color&gt;でカラ焼きする。
-&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
-</t>
-    <rPh sb="81" eb="82">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="169" eb="172">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お菓子の基本＜初級＞</t>
     <rPh sb="1" eb="3">
       <t>カシ</t>
@@ -837,13 +817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、ミルク&lt;/color&gt;を混ぜて生地を作る。
-作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
-薄く焼いて、完成！
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">①&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて、アパレイユを作る。
 ②作った生地（アパレイユ）に、&lt;color=#BA9535FF&gt;小麦粉・塩&lt;/color&gt;をふるいながら混ぜる。
 焼いて完成！
@@ -913,10 +886,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">☆お茶の淹れかた
+    <t>☆お茶の淹れかた
 ①茶の素となる&lt;color=#BA9535FF&gt;葉っぱ・花&lt;/color&gt;を集めましょう。
 ②集めたお茶っぱに、&lt;color=#BA9535FF&gt;水&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でふつふつと沸かしたら出来上がり！
-</t>
+茶葉　：　水　＝　&lt;color=#BA9535FF&gt;3　：　1&lt;/color&gt;</t>
     <rPh sb="2" eb="3">
       <t>チャ</t>
     </rPh>
@@ -959,6 +932,36 @@
     <rPh sb="135" eb="138">
       <t>デキア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
+&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
+パンを、&lt;color=#FF5CA1FF&gt;オーブン&lt;/color&gt;でカラ焼きする。
+&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
+バゲット　：　砂糖　＝　&lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
+</t>
+    <rPh sb="81" eb="82">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="169" eb="172">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、ミルク&lt;/color&gt;を混ぜて生地を作る。
+&lt;color=#BA9535FF&gt;１　：　１　：　１&lt;/color&gt;
+作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
+&lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
+薄く焼いて、完成！
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1347,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1573,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1591,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1609,10 +1612,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -1630,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1648,10 +1651,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1669,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1687,10 +1690,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>77</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1708,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1726,10 +1729,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
         <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
       </c>
       <c r="E10">
         <v>300</v>
@@ -1747,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1765,10 +1768,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1786,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1864,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -1981,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2020,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17">
         <v>70</v>
@@ -2137,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -2341,10 +2344,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2362,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2380,28 +2383,28 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>87</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>89</v>
       </c>
       <c r="K3">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D023BA-70FA-4908-B76A-C3D938E84E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEA20E-9531-466E-BD45-3881FD9C77D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3315" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -935,33 +935,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
-&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
-パンを、&lt;color=#FF5CA1FF&gt;オーブン&lt;/color&gt;でカラ焼きする。
-&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
-バゲット　：　砂糖　＝　&lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
-</t>
-    <rPh sb="81" eb="82">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="169" eb="172">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、ミルク&lt;/color&gt;を混ぜて生地を作る。
 &lt;color=#BA9535FF&gt;１　：　１　：　１&lt;/color&gt;
 作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
 &lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
 薄く焼いて、完成！
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
+&lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
+&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
+バゲット　：　砂糖　＝　&lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
+</t>
+    <rPh sb="81" eb="82">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="126" eb="129">
+      <t>デキア</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1351,7 +1347,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1867,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -1984,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16">
         <v>60</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FEA20E-9531-466E-BD45-3881FD9C77D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD31DF-68AA-4290-B14F-D9DBF61740A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -935,15 +935,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、ミルク&lt;/color&gt;を混ぜて生地を作る。
-&lt;color=#BA9535FF&gt;１　：　１　：　１&lt;/color&gt;
-作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
-&lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
-薄く焼いて、完成！
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
 &lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
 &lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
@@ -958,6 +949,14 @@
     <rPh sb="126" eb="129">
       <t>デキア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#BA9535FF&gt;砂糖にたまご、ミルク&lt;/color&gt;を混ぜて生地を作る。
+作った生地（アパレイユ＜ミルク＞）に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;をふるいながら混ぜる。
+&lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
+薄く焼いて、完成！
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1347,7 +1346,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1863,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -1980,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>60</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD31DF-68AA-4290-B14F-D9DBF61740A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBFEAF-75D2-4DD6-839C-B5481ABA9EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2325" yWindow="1875" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -834,10 +834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイドコスチューム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掛け軸</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -957,6 +953,35 @@
 &lt;color=#BA9535FF&gt;１　：　２&lt;/color&gt;
 薄く焼いて、完成！
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイドさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒い水着</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミズギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sukumizu_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巫女さん</t>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Miko_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1345,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1763,10 +1788,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1784,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1862,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -1979,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2270,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2332,7 +2357,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A3" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2342,7 +2367,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2360,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2378,10 +2403,10 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2405,6 +2430,84 @@
         <v>9999</v>
       </c>
       <c r="L3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4">
+        <v>9999</v>
+      </c>
+      <c r="L4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5">
+        <v>9999</v>
+      </c>
+      <c r="L5">
         <v>9999</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBFEAF-75D2-4DD6-839C-B5481ABA9EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC98D8-F5A2-4D40-A8CF-C2638A09D792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1875" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3075" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -834,16 +834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掛け軸</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Kakejiku</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -956,32 +946,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイドさん</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黒い水着</t>
-    <rPh sb="0" eb="1">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミズギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sukumizu_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>巫女さん</t>
+    <t>Miko_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイドさん衣装</t>
+    <rPh sb="5" eb="7">
+      <t>イショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スク水衣装</t>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巫女さん衣装</t>
     <rPh sb="0" eb="2">
       <t>ミコ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Miko_Costume</t>
+    <rPh sb="4" eb="6">
+      <t>イショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掛け軸の部屋</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1788,10 +1797,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1809,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1887,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -2004,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2298,7 +2307,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2367,7 +2376,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2385,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2403,11 +2412,11 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>95</v>
       </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2442,7 +2451,7 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
@@ -2463,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2481,28 +2490,28 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
       </c>
       <c r="K5">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DC98D8-F5A2-4D40-A8CF-C2638A09D792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981E5D6-F932-4F31-B7F6-DE0350DC9EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4200" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1379,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2306,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8981E5D6-F932-4F31-B7F6-DE0350DC9EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C51B0-CEF0-4B18-8B2E-DFE48A33C4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -857,10 +857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヒカリのメイドコスチューム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>お茶のすすめ</t>
     <rPh sb="1" eb="2">
       <t>チャ</t>
@@ -954,33 +950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メイドさん衣装</t>
-    <rPh sb="5" eb="7">
-      <t>イショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スク水衣装</t>
-    <rPh sb="2" eb="3">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巫女さん衣装</t>
-    <rPh sb="0" eb="2">
-      <t>ミコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掛け軸の部屋</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -990,6 +959,51 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Glass_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bafomet_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メガネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バフォメットの角</t>
+    <rPh sb="7" eb="8">
+      <t>ツノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒカリのコスチューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒカリのアクセサリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイドさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水着</t>
+    <rPh sb="0" eb="2">
+      <t>ミズギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巫女さん</t>
+    <rPh sb="0" eb="2">
+      <t>ミコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -998,7 +1012,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1039,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1055,13 +1077,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1797,10 +1822,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1818,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1896,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -2013,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2304,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2366,7 +2391,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2376,7 +2401,7 @@
         <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2394,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2412,10 +2437,10 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2433,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2451,10 +2476,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2472,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2489,11 +2514,11 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2511,12 +2536,90 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K5">
         <v>9999</v>
       </c>
       <c r="L5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>9999</v>
+      </c>
+      <c r="L6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>9999</v>
+      </c>
+      <c r="L7">
         <v>9999</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88C51B0-CEF0-4B18-8B2E-DFE48A33C4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27219FD7-A84C-4C0A-BDB5-50CFC1C0357D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1005,6 +1005,28 @@
     <rPh sb="0" eb="2">
       <t>ミコ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PinkGoth_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴシック＜ピンク＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天使の羽根</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AngelWing_Acce</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2329,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2391,7 +2413,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2476,10 +2498,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2514,11 +2536,11 @@
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
+      <c r="C5" t="s">
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2536,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2553,11 +2575,11 @@
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>95</v>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2593,10 +2615,10 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2614,12 +2636,90 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>9999</v>
       </c>
       <c r="L7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
+        <v>9999</v>
+      </c>
+      <c r="L8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>9999</v>
+      </c>
+      <c r="L9">
         <v>9999</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27219FD7-A84C-4C0A-BDB5-50CFC1C0357D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844D89B-3A65-4688-99B0-1C2D621AD21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1680" windowWidth="24075" windowHeight="12885" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3780" yWindow="2370" windowWidth="24075" windowHeight="12885" firstSheet="1" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2354,7 +2354,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844D89B-3A65-4688-99B0-1C2D621AD21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170193A3-79AB-4AC6-B3FB-7D2BB527D6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2370" windowWidth="24075" windowHeight="12885" firstSheet="1" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -626,94 +626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">童話：「アイスの実の森」
-..おにいちゃんといもうとは、長くて深い森をひたすら進んでいきます。
-あまりにも森は深いため、帰り道が分からなくなってしまいました。
-「どうしよう？」
-「あ！にいちゃん、みて！　ここの小さな穴から、光がみえるよ！」
-そして二人は穴を進んでいきました。すると..。
-.. パァ～～～～～。キラキラ☆
-「うわぁ～～..。」
-なんと、穴を抜けた先には、カラフルに七色に光り輝く丸い実をつけた木がたくさん！
-ひんやりとしたその実は、すべてアイスで出来ています！
-「にいちゃん！　アイスの実の森だ～！」
-妹は大はしゃぎで.. .. しかし、後ろには悪い魔女が..
-</t>
-    <rPh sb="0" eb="2">
-      <t>ドウワ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ミチ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ヒカリ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>フタリ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ナナイロ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ヒカル</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>カガヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>recipibook_5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,55 +780,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>☆お茶の淹れかた
-①茶の素となる&lt;color=#BA9535FF&gt;葉っぱ・花&lt;/color&gt;を集めましょう。
-②集めたお茶っぱに、&lt;color=#BA9535FF&gt;水&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でふつふつと沸かしたら出来上がり！
-茶葉　：　水　＝　&lt;color=#BA9535FF&gt;3　：　1&lt;/color&gt;</t>
-    <rPh sb="2" eb="3">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="135" eb="138">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【カリカリサクサク　ラスクのレシピ】
 &lt;color=#BA9535FF&gt;バゲット &lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;ナイフ&lt;/color&gt;で薄くスライスする。
 &lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;をまぶして、出来上がり！
@@ -1027,6 +890,168 @@
   </si>
   <si>
     <t>AngelWing_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆お茶の淹れかた
+①茶の素となる&lt;color=#BA9535FF&gt;葉っぱ・花&lt;/color&gt;を集めましょう。
+②集めたお茶っぱに、&lt;color=#BA9535FF&gt;水&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でふつふつと沸かしたら出来上がり！
+茶葉　：　水　＝　&lt;color=#BA9535FF&gt;3　：　1&lt;/color&gt;
+</t>
+    <rPh sb="2" eb="3">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">童話：「アイスの実の森」
+..おにいちゃんといもうとは、長くて深い森をひたすら進んでいきます。
+あまりにも森は深いため、帰り道が分からなくなってしまいました。
+「どうしよう？」
+「あ！にいちゃん、みて！　ここの小さな穴から、光がみえるよ！」
+そして二人は穴を進んでいきました。すると..。
+.. パァ～～～～～。キラキラ☆
+「うわぁ～～..。」
+なんと、穴を抜けた先には、七色に光り輝く丸い実をつけた木がたくさん！
+その不思議な実は、触ると冷たく、口に含むと、とても甘いバニラの味が広がります。
+「にいちゃん！　アイスの実の森だ～！」
+妹は大はしゃぎで.. .. しかし、後ろには悪い魔女が..
+</t>
+    <rPh sb="0" eb="2">
+      <t>ドウワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>フタリ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ナナイロ</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>ヒカル</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>カガヤ</t>
+    </rPh>
+    <rPh sb="219" eb="222">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>サワ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ヒロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1426,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1787,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1805,10 +1830,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
       </c>
       <c r="E10">
         <v>300</v>
@@ -1826,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1844,10 +1869,10 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1865,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1943,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -2060,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2099,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17">
         <v>70</v>
@@ -2216,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -2353,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2420,10 +2445,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2441,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2459,10 +2484,10 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2480,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2498,10 +2523,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2519,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2537,10 +2562,10 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2558,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2576,11 +2601,11 @@
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -2597,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>9999</v>
@@ -2615,28 +2640,28 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>97</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>99</v>
       </c>
       <c r="K7">
         <v>9999</v>
@@ -2654,10 +2679,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2675,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>9999</v>
@@ -2693,28 +2718,28 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
       </c>
       <c r="K9">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170193A3-79AB-4AC6-B3FB-7D2BB527D6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABC456-34B9-4E5F-8C45-DF5EF75D3757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -261,20 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ビスコッティは油分を一切使わない
-①&lt;color=#BA9535FF&gt;ベーキングミックス&lt;/color&gt;と&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を混ぜて生地を作る。
-②ベーキングミックスは、&lt;color=#BA9535FF&gt;ベーキングパウダーに小麦粉&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ合わせて作る。粉を混ぜたもの
-生地を寝かせ、焼き上げたら完成♪
-</t>
-    <rPh sb="185" eb="186">
-      <t>コナ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">スライムゼリー　透明でぷるぷる♪きれいなゼリーの作り方
 ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
 冷やす。完成♪
@@ -725,19 +711,6 @@
 </t>
     <rPh sb="17" eb="19">
       <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">①&lt;color=#BA9535FF&gt;砂糖にたまご、バター&lt;/color&gt;を混ぜて、アパレイユを作る。
-②作った生地（アパレイユ）に、&lt;color=#BA9535FF&gt;小麦粉・塩&lt;/color&gt;をふるいながら混ぜる。
-焼いて完成！
-</t>
-    <rPh sb="88" eb="89">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,6 +1024,33 @@
     </rPh>
     <rPh sb="250" eb="251">
       <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ビスコッティは油分を一切使わないお菓子
+①ベーキングミックスは、&lt;color=#BA9535FF&gt;ベーキングパウダーに小麦粉&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜ合わせて作る。
+②&lt;color=#BA9535FF&gt;ベーキングミックス&lt;/color&gt;と&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を混ぜて生地を作る。
+生地を寝かせ、焼き上げたら完成♪
+</t>
+    <rPh sb="17" eb="19">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①&lt;color=#BA9535FF&gt;砂糖、バター、ベーキングパウダー&lt;/color&gt;を混ぜて、マフィン生地を作る。
+②マフィン生地に、&lt;color=#BA9535FF&gt;小麦粉・塩&lt;/color&gt;をふるいながら混ぜる。
+焼いて完成！
+</t>
+    <rPh sb="51" eb="53">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1503,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -1602,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1695,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1713,13 +1713,13 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
       <c r="E7">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1734,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1752,13 +1752,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1791,13 +1791,13 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
       <c r="E9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1830,13 +1830,13 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
       <c r="E10">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <v>150</v>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1869,13 +1869,13 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <v>40</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>30</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>70</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>80</v>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>9999</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -2256,13 +2256,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21">
         <v>110</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22">
         <v>90</v>
@@ -2334,13 +2334,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23">
         <v>120</v>
@@ -2430,10 +2430,10 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2445,10 +2445,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2484,10 +2484,10 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2523,10 +2523,10 @@
         <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2562,10 +2562,10 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2601,11 +2601,11 @@
         <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
-        <v>94</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>9999</v>
@@ -2640,28 +2640,28 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
         <v>93</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
       </c>
       <c r="K7">
         <v>9999</v>
@@ -2679,10 +2679,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K8">
         <v>9999</v>
@@ -2718,10 +2718,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABC456-34B9-4E5F-8C45-DF5EF75D3757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE38369-41BC-49B7-BE59-178F0654F4B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3480" yWindow="1695" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -94,13 +94,6 @@
   </si>
   <si>
     <t>ice_cream_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイスクリームの書</t>
-    <rPh sb="8" eb="9">
-      <t>ショ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1052,6 +1045,18 @@
     <rPh sb="114" eb="116">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスクリームのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【アイスクリームのレシピ】
+①&lt;color=#BA9535FF&gt;ミルク・砂糖・バニラエッセンス&lt;/color&gt;を数滴まぜ、液体を作ります。
+②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れると良いでしょう。
+③しばらく経つと、液体が固まって、アイスの出来上がり！
+寒い時ほど、なぜか食べたくなる、珠玉のお菓子です♪</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1451,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1476,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1500,13 +1505,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1515,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1539,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -1554,13 +1559,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -1578,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -1593,13 +1598,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -1617,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -1632,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1656,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1671,13 +1676,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1695,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1710,13 +1715,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1734,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1749,13 +1754,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1773,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1788,13 +1793,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1812,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1827,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1851,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1866,13 +1871,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1890,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1905,13 +1910,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1929,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
         <v>50</v>
@@ -1944,13 +1949,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1968,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13">
         <v>40</v>
@@ -1983,13 +1988,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2004,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K14">
         <v>20</v>
@@ -2022,13 +2027,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2046,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>30</v>
@@ -2061,13 +2066,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2085,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>60</v>
@@ -2100,13 +2105,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2124,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>70</v>
@@ -2139,13 +2144,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2163,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18">
         <v>80</v>
@@ -2178,13 +2183,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2202,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>9999</v>
@@ -2217,13 +2222,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2241,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20">
         <v>100</v>
@@ -2256,13 +2261,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2280,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21">
         <v>110</v>
@@ -2295,13 +2300,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
         <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2319,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
         <v>90</v>
@@ -2334,13 +2339,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2358,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23">
         <v>120</v>
@@ -2403,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2427,13 +2432,13 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2442,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2466,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2481,13 +2486,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2505,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2520,14 +2525,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2559,13 +2564,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2583,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2598,13 +2603,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2622,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6">
         <v>9999</v>
@@ -2637,13 +2642,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2661,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7">
         <v>9999</v>
@@ -2676,13 +2681,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2700,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8">
         <v>9999</v>
@@ -2715,31 +2720,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
       </c>
       <c r="K9">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE38369-41BC-49B7-BE59-178F0654F4B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C643CD1-9C6F-423D-A0E4-F0CA9D52F8BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1695" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3075" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1057,6 +1057,38 @@
 ②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れると良いでしょう。
 ③しばらく経つと、液体が固まって、アイスの出来上がり！
 寒い時ほど、なぜか食べたくなる、珠玉のお菓子です♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豪華さの秘訣</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お菓子を豪華にみせるための、
+秘訣がのっている。</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/recipibook</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1454,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1516,11 +1548,11 @@
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A23" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A24" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1559,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1598,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1637,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1676,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1715,7 +1747,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
         <v>66</v>
@@ -1754,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -1793,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -1832,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
@@ -1871,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -1910,37 +1942,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <v>1040</v>
       </c>
       <c r="L12">
-        <v>50</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1949,13 +1981,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1967,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1988,13 +2020,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2012,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2027,19 +2059,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>500</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2051,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2066,13 +2098,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2090,13 +2122,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L16">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2105,13 +2137,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2129,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2144,13 +2176,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2168,13 +2200,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L18">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2183,13 +2215,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2207,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="K19">
-        <v>9999</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>9999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2222,13 +2254,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2246,13 +2278,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="L20">
-        <v>100</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2261,13 +2293,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2285,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K21">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L21">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2300,13 +2332,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2324,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2339,13 +2371,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2363,12 +2395,51 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>120</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>120</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C643CD1-9C6F-423D-A0E4-F0CA9D52F8BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466675BB-7DDD-4E05-BA5A-C31D32B3D2B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3765" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -295,53 +295,6 @@
     </rPh>
     <rPh sb="161" eb="163">
       <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【バゲットのレシピ】
-プリン姉さんの直伝！
-小麦粉：水　＝　
-&lt;color=#BA9535FF&gt;４：１&lt;/color&gt;
-ちょっと粉っぽく固いらしい。
-もう少し小麦粉の量を減らせば、
-ラスク向けに良いかも！
-</t>
-    <rPh sb="14" eb="15">
-      <t>ネエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジキデン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>コナ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="83" eb="86">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1052,14 +1005,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【アイスクリームのレシピ】
-①&lt;color=#BA9535FF&gt;ミルク・砂糖・バニラエッセンス&lt;/color&gt;を数滴まぜ、液体を作ります。
-②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れると良いでしょう。
-③しばらく経つと、液体が固まって、アイスの出来上がり！
-寒い時ほど、なぜか食べたくなる、珠玉のお菓子です♪</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>recipibook_7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1089,6 +1034,141 @@
   </si>
   <si>
     <t>Items/recipibook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュースのしぼり方</t>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【バゲットのレシピ】
+プリン姉さんの直伝！
+小麦粉：水　＝　
+&lt;color=#BA9535FF&gt;４：１&lt;/color&gt;
+ちょっと粉っぽく固いらしい。
+もう少し小麦粉の量を減らせば、
+ラスク向けに良いかも！
+</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="119" eb="122">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>テキド</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【アイスクリームのレシピ】
+①&lt;color=#BA9535FF&gt;ミルク・砂糖・バニラエッセンス&lt;/color&gt;を数滴まぜ、液体を作ります。
+②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れると良いでしょう。
+③しばらく経つと、液体が固まって、アイスの出来上がり！
+寒い時ほど、なぜか食べたくなる、珠玉のお菓子です♪
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆ジュースのしぼり方
+①まずは、&lt;color=#BA9535FF&gt;くだもの&lt;/color&gt;を集めましょう。
+②&lt;color=#FF5CA1FF&gt;魔法のジュースミキサー&lt;/color&gt;に、&lt;color=#BA9535FF&gt;くだもの&lt;/color&gt;を入れ、スイッチポン！
+あっという間に、おいしいジュースの出来上がり！
+</t>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/orange_juice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/rich_tea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/kogashi_butter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1486,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1540,19 +1620,19 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A24" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A25" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1591,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1615,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -1630,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1669,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1708,13 +1788,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1732,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1747,13 +1827,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1771,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1786,13 +1866,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1810,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1825,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1849,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1864,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1888,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1903,13 +1983,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1927,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -1942,13 +2022,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1963,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K12">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="L12">
-        <v>1040</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1981,37 +2061,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>1060</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2020,13 +2100,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2038,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2059,13 +2139,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2083,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2098,19 +2178,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2122,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="K16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2137,13 +2217,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2161,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L17">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2176,13 +2256,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2200,13 +2280,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2215,13 +2295,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2242,10 +2322,10 @@
         <v>104</v>
       </c>
       <c r="K19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L19">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2254,13 +2334,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2278,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>9999</v>
+        <v>80</v>
       </c>
       <c r="L20">
-        <v>9999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2293,13 +2373,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2317,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2332,13 +2412,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2356,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L22">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2371,13 +2451,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2395,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L23">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2410,13 +2490,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2434,12 +2514,51 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>150</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25">
         <v>120</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>120</v>
       </c>
     </row>
@@ -2506,10 +2625,10 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2521,10 +2640,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2542,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2560,10 +2679,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2581,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2599,11 +2718,11 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -2620,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2638,10 +2757,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2659,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2677,10 +2796,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2698,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>9999</v>
@@ -2716,10 +2835,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2737,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>9999</v>
@@ -2755,10 +2874,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2776,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>9999</v>
@@ -2794,28 +2913,28 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
       </c>
       <c r="K9">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466675BB-7DDD-4E05-BA5A-C31D32B3D2B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D751BB-F2D5-40B1-B884-1159D356BEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -494,50 +494,6 @@
   </si>
   <si>
     <t>recipibook_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">バターはお菓子の基本！
-バターについて教えましょう。
-バターはそのままお菓子に入れてもおいしいですが、
-&lt;color=#FF5CA1FF&gt;小さなお鍋&lt;/color&gt;で熱することで、焦がし風味の香る香ばしいバターが出来ます。
-ねこクッキーのバターを、焦がしバターに変えるだけで、あら不思議！
-風味豊かな、焦がしねこクッキーの完成です。
-簡単なので、ぜひお家で試してみましょうね。（お菓子ソムリエ　タカノ）
-</t>
-    <rPh sb="5" eb="7">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="143" eb="146">
-      <t>フシギ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>ユタ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>カシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1078,52 +1034,7 @@
       <t>デキ</t>
     </rPh>
     <rPh sb="98" eb="100">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="119" eb="122">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>テキド</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>ア</t>
+      <t>キジコムギコイマアキジツクスコネキジテキドオオキトイア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1169,6 +1080,60 @@
   </si>
   <si>
     <t>Items/kogashi_butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーのレシピ＜初級＞</t>
+    <rPh sb="9" eb="11">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クッキーのレシピ＜初級＞】
+☆初心者にオススメのクッキー 3選☆
+その１　～　味わい深いねこクッキー　～
+①まずは、&lt;color=#FDFF80FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜて、＜アパレイユ＞を作ります。
+②できたてアパレイユに、小麦粉を混ぜて、焼きましょう♪　たまごいりの、濃厚なクッキーの完成です。
+その２　～　焦がしねこクッキー　～
+①まずは、&lt;color=#FF5CA1FF&gt;小さな鍋&lt;/color&gt;を用意し、&lt;color=#FDFF80FF&gt;バター&lt;/color&gt;を溶かします。
+②普段作るねこクッキーの、&lt;color=#FDFF80FF&gt;バター&lt;/color&gt;を、&lt;color=#FDFF80FF&gt;焦がしバター&lt;/color&gt;に変えてみましょう。
+味にコクのある、焦がしねこクッキーの出来上がり♪
+その３　～　森のシュガーバター　～
+①まずは、ノーマルなねこクッキーを作ります。
+②仕上げに&lt;color=#FDFF80FF&gt;ホイップクリーム&lt;/color&gt;を用意し、作ったクッキーでサンドしましょう。
+サクサクで、中はふわふわ♪　シュガーバタークッキーの出来上がり！
+</t>
+    <rPh sb="10" eb="12">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">バターはお菓子の基本！
+バターについて教えましょう。
+バターは、基本的に&lt;color=#BA9535FF&gt;さくさく感&lt;/color&gt;に影響します。さくさくしたいときは、バターを多くいれましょう。
+バターはそのままお菓子に入れてもおいしいですが、
+&lt;color=#FF5CA1FF&gt;小さなお鍋&lt;/color&gt;で熱することで、焦がし風味の香る香ばしいバターが出来ます。
+バターを使うお菓子の中では、焦がしバターに変えることで、さらに風味アップが狙えそうです。
+簡単なので、ぜひお家で試してみましょうね。（お菓子ソムリエ　タカノ）
+</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>カシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1566,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1628,11 +1593,11 @@
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A25" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A26" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1671,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1710,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1749,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1788,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1827,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
@@ -1866,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1890,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1905,13 +1870,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1929,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1947,10 +1912,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
         <v>74</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1968,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1983,13 +1948,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2007,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -2022,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
         <v>106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2046,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12">
         <v>1050</v>
@@ -2061,13 +2026,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2085,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>1060</v>
@@ -2100,13 +2065,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2118,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K14">
-        <v>50</v>
+        <v>1070</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2139,13 +2104,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2157,19 +2122,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="K15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2178,13 +2143,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2202,13 +2167,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2217,19 +2182,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2241,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="K17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2256,13 +2221,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2280,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2295,13 +2260,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2319,13 +2284,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2334,13 +2299,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2361,10 +2326,10 @@
         <v>103</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2373,13 +2338,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2397,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="K21">
-        <v>9999</v>
+        <v>80</v>
       </c>
       <c r="L21">
-        <v>9999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2412,13 +2377,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2436,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2451,13 +2416,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2475,13 +2440,13 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L23">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2490,13 +2455,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2514,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2529,13 +2494,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2553,12 +2518,51 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>120</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>120</v>
       </c>
     </row>
@@ -2640,10 +2644,10 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2661,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2679,10 +2683,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2700,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2718,11 +2722,11 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2757,10 +2761,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2778,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2796,10 +2800,10 @@
         <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2817,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>9999</v>
@@ -2835,10 +2839,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2856,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7">
         <v>9999</v>
@@ -2874,10 +2878,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2895,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8">
         <v>9999</v>
@@ -2913,28 +2917,28 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
       </c>
       <c r="K9">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D751BB-F2D5-40B1-B884-1159D356BEEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD82C7C-A5DF-4513-8A39-52C9D4D07AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3360" yWindow="2865" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1134,6 +1134,34 @@
     <rPh sb="256" eb="258">
       <t>カシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒカリのコスチューム＜デフォルト＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/CostumeIcon_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/CostumeIcon_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/CostumeIcon_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/AcceIcon_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/AcceIcon_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/AcceIcon_3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1533,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2577,14 +2605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="32.875" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
@@ -2641,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -2665,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2680,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
@@ -2719,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
@@ -2797,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>87</v>
@@ -2836,7 +2864,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -2875,7 +2903,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD82C7C-A5DF-4513-8A39-52C9D4D07AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F162F-F5D1-4E17-A6D7-D6A61B04130B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2865" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スラゼリーのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>slimejelly_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -251,37 +247,6 @@
   </si>
   <si>
     <t>Items/creampuff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">スライムゼリー　透明でぷるぷる♪きれいなゼリーの作り方
-ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
-冷やす。完成♪
-</t>
-    <rPh sb="8" eb="10">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カンセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1162,6 +1127,41 @@
   </si>
   <si>
     <t>Icon/AcceIcon_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェリーボーイのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
+ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
+冷やす。完成♪
+</t>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カンセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1613,10 +1613,10 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -1703,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1781,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1820,13 +1820,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1844,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>1000</v>
@@ -1859,13 +1859,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K8">
         <v>1010</v>
@@ -1898,13 +1898,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K9">
         <v>1020</v>
@@ -1940,10 +1940,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10">
         <v>1030</v>
@@ -1976,13 +1976,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>1040</v>
@@ -2015,13 +2015,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K12">
         <v>1050</v>
@@ -2054,13 +2054,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K13">
         <v>1060</v>
@@ -2093,13 +2093,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K14">
         <v>1070</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15">
         <v>50</v>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>40</v>
@@ -2216,7 +2216,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K17">
         <v>20</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>30</v>
@@ -2312,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K19">
         <v>60</v>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K20">
         <v>70</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>80</v>
@@ -2405,13 +2405,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K22">
         <v>9999</v>
@@ -2444,13 +2444,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K23">
         <v>100</v>
@@ -2483,13 +2483,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K24">
         <v>110</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K25">
         <v>90</v>
@@ -2561,13 +2561,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>120</v>
@@ -2605,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2657,10 +2657,10 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2669,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K2">
         <v>9999</v>
@@ -2708,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>9999</v>
@@ -2747,13 +2747,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>9999</v>
@@ -2789,10 +2789,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K5">
         <v>9999</v>
@@ -2825,14 +2825,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6">
         <v>9999</v>
@@ -2864,31 +2864,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>90</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
       </c>
       <c r="K7">
         <v>9999</v>
@@ -2903,13 +2903,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8">
         <v>9999</v>
@@ -2945,10 +2945,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7F162F-F5D1-4E17-A6D7-D6A61B04130B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A05A0-99BB-4E6E-92D7-0FB56DB0B2BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="137">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Miko_Costume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掛け軸の部屋</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -704,18 +700,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>巫女さん</t>
-    <rPh sb="0" eb="2">
-      <t>ミコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PinkGoth_Costume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴシック＜ピンク＞</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1162,6 +1147,63 @@
     <rPh sb="60" eb="62">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒エプロン</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meid_Black_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤いドレス</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンクリボンドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティンクルスターダスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwincleStarDust_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お花のヘアピン</t>
+    <rPh sb="1" eb="2">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlowerHairpin_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルーンハット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BalloonHat_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedDress_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1559,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1574,14 +1616,14 @@
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="41.125" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="8" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="41.125" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1607,25 +1649,28 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A26" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1646,25 +1691,28 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9999</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1685,25 +1733,28 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9999</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1724,25 +1775,28 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4">
-        <v>9999</v>
       </c>
       <c r="L4">
         <v>9999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1765,23 +1819,26 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1802,25 +1859,28 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -1841,25 +1901,28 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K7">
-        <v>1000</v>
       </c>
       <c r="L7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -1880,25 +1943,28 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8">
-        <v>1010</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="L8">
         <v>1010</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M8">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -1919,19 +1985,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9">
-        <v>1020</v>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="L9">
         <v>1020</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1958,25 +2027,28 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K10">
-        <v>1030</v>
       </c>
       <c r="L10">
         <v>1030</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M10">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -1997,31 +2069,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11">
-        <v>1040</v>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="L11">
         <v>1040</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M11">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2036,31 +2111,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12">
-        <v>1050</v>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="L12">
         <v>1050</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M12">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2075,31 +2153,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13">
-        <v>1060</v>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="L13">
         <v>1060</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M13">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2114,19 +2195,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14">
-        <v>1070</v>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="L14">
         <v>1070</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M14">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2153,19 +2237,22 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="L15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2192,19 +2279,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="K16">
-        <v>40</v>
       </c>
       <c r="L16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2216,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2231,19 +2321,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="L17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2270,19 +2363,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="K18">
-        <v>30</v>
       </c>
       <c r="L18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2309,19 +2405,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="K19">
-        <v>60</v>
       </c>
       <c r="L19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2348,19 +2447,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="L20">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2387,19 +2489,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="L21">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2411,7 +2516,7 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2426,19 +2531,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K22">
-        <v>9999</v>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="L22">
         <v>9999</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M22">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2465,19 +2573,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
       </c>
       <c r="L23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2504,19 +2615,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="K24">
-        <v>110</v>
       </c>
       <c r="L24">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2543,19 +2657,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="K25">
-        <v>90</v>
       </c>
       <c r="L25">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2582,15 +2699,18 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>120</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>120</v>
       </c>
     </row>
@@ -2603,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2618,14 +2738,14 @@
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="41.125" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="8" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="41.125" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2651,31 +2771,34 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2684,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2692,29 +2815,32 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2">
-        <v>9999</v>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
       </c>
       <c r="L2">
         <v>9999</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M2">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2731,29 +2857,32 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K3">
-        <v>9999</v>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
       </c>
       <c r="L3">
         <v>9999</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M3">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2770,29 +2899,32 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4">
-        <v>9999</v>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
       </c>
       <c r="L4">
         <v>9999</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2809,29 +2941,32 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5">
-        <v>9999</v>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
       </c>
       <c r="L5">
         <v>9999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2848,30 +2983,33 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6">
-        <v>9999</v>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
       </c>
       <c r="L6">
         <v>9999</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M6">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
@@ -2887,29 +3025,32 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7">
-        <v>9999</v>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
       </c>
       <c r="L7">
         <v>9999</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M7">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2926,52 +3067,226 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8">
-        <v>9999</v>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
       </c>
       <c r="L8">
         <v>9999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9">
+        <v>9999</v>
+      </c>
+      <c r="M9">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>9999</v>
+      </c>
+      <c r="M10">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11">
+        <v>9999</v>
+      </c>
+      <c r="M11">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12">
+        <v>9999</v>
+      </c>
+      <c r="M12">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>77</v>
       </c>
-      <c r="K9">
+      <c r="L13">
         <v>9999</v>
       </c>
-      <c r="L9">
+      <c r="M13">
         <v>9999</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A05A0-99BB-4E6E-92D7-0FB56DB0B2BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC1706-1DD6-4DFA-87FA-61AF0B6C8373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1119,9 +1119,163 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>item_Type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒エプロン</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meid_Black_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤いドレス</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンクリボンドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティンクルスターダスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TwincleStarDust_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お花のヘアピン</t>
+    <rPh sb="1" eb="2">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlowerHairpin_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バルーンハット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BalloonHat_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RedDress_Costume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/strawberry_parfe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストロベリーパフェのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strawberry_parfe_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆基本のバニラパフェの作り方
+①&lt;color=#BA9535FF&gt;ガラスの器&lt;/color&gt;に、目いっぱい&lt;color=#BA9535FF&gt;コーンフレーク&lt;/color&gt;を敷きます。
+②カステラを詰めて、その上に山盛りのアイスクリームをのせます。
+③トッピングに、ホイップクリームといちごをふんだんにのせたら、完成！
+</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウツワ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヤマモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カステラのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>castella_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/castella</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆カステラの作り方
+①&lt;color=#BA9535FF&gt;たまご・砂糖・はちみつ&lt;/color&gt;を混ぜて、生地を作ります。
+②&lt;color=#BA9535FF&gt;生地（アパレイユ＜ハニー＞）&lt;/color&gt;に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜ、生地下に&lt;color=#BA9535FF&gt;ザラメ&lt;/color&gt;を敷き、焼き上げましょう♪
+</t>
+    <rPh sb="33" eb="35">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="122" eb="125">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
-ゼラチンを混ぜながら、砂糖・ブルーソーダを入れる。
-冷やす。完成♪
+①砂糖・水にゼラチンパウダーを加えて混ぜる。
+②出来た液体＜ジェリーウォーター＞を、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れて冷やすと、ぷるぷるに♪
+水を、別の液体に変えても、きれいなのが出来るかも。
 </t>
     <rPh sb="8" eb="10">
       <t>トウメイ</t>
@@ -1132,78 +1286,45 @@
     <rPh sb="26" eb="27">
       <t>カタ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="30" eb="32">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
       <t>マ</t>
     </rPh>
-    <rPh sb="40" eb="42">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
+    <rPh sb="54" eb="56">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
       <t>イ</t>
     </rPh>
-    <rPh sb="56" eb="57">
+    <rPh sb="103" eb="104">
       <t>ヒ</t>
     </rPh>
-    <rPh sb="60" eb="62">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item_Type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黒エプロン</t>
-    <rPh sb="0" eb="1">
-      <t>クロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Meid_Black_Costume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤いドレス</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピンクリボンドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ティンクルスターダスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TwincleStarDust_Acce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お花のヘアピン</t>
-    <rPh sb="1" eb="2">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FlowerHairpin_Acce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バルーンハット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BalloonHat_Acce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RedDress_Costume</t>
+    <rPh sb="116" eb="117">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>デキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1601,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1649,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1666,7 +1787,7 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A26" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2537,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="L22">
         <v>9999</v>
@@ -2636,13 +2757,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2663,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2678,13 +2799,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2705,13 +2826,97 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="L26">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M26">
-        <v>120</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27">
+        <v>140</v>
+      </c>
+      <c r="M27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28">
+        <v>200</v>
+      </c>
+      <c r="M28">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2725,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2740,7 +2945,7 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="8" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="41.125" customWidth="1"/>
+    <col min="11" max="11" width="26.75" customWidth="1"/>
     <col min="12" max="12" width="9.875" customWidth="1"/>
     <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
@@ -2771,7 +2976,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2837,10 +3042,10 @@
         <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2924,7 +3129,7 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2963,10 +3168,10 @@
         <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3131,10 +3336,10 @@
         <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3173,10 +3378,10 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3215,10 +3420,10 @@
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC1706-1DD6-4DFA-87FA-61AF0B6C8373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0D2D9C-9715-45D5-8C56-4FF0ADC03611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カリカリサクサクラスクのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rusk_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1325,6 +1321,10 @@
     <rPh sb="135" eb="137">
       <t>デキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラスクのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1724,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1779,10 +1779,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1833,13 +1833,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1959,13 +1959,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2001,13 +2001,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -2043,13 +2043,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L8">
         <v>1010</v>
@@ -2085,13 +2085,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
         <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2112,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9">
         <v>1020</v>
@@ -2127,13 +2127,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10">
         <v>1030</v>
@@ -2169,13 +2169,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L11">
         <v>1040</v>
@@ -2211,13 +2211,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
         <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2253,13 +2253,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L13">
         <v>1060</v>
@@ -2295,13 +2295,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2322,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14">
         <v>1070</v>
@@ -2337,13 +2337,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2379,13 +2379,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16">
         <v>40</v>
@@ -2421,13 +2421,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -2463,7 +2463,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18">
         <v>30</v>
@@ -2505,13 +2505,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19">
         <v>60</v>
@@ -2547,13 +2547,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L20">
         <v>70</v>
@@ -2589,13 +2589,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L21">
         <v>80</v>
@@ -2631,13 +2631,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2658,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22">
-        <v>9999</v>
+        <v>90</v>
       </c>
       <c r="M22">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2673,13 +2673,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -2715,13 +2715,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L24">
         <v>110</v>
@@ -2757,13 +2757,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L25">
         <v>120</v>
@@ -2799,13 +2799,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
         <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26">
         <v>130</v>
@@ -2841,13 +2841,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27">
         <v>140</v>
@@ -2883,13 +2883,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
         <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2985,10 +2985,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3039,13 +3039,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -3081,13 +3081,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -3123,13 +3123,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -3165,13 +3165,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -3207,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -3249,13 +3249,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -3291,13 +3291,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -3333,13 +3333,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -3375,13 +3375,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11">
         <v>9999</v>
@@ -3417,13 +3417,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12">
         <v>9999</v>
@@ -3459,13 +3459,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0D2D9C-9715-45D5-8C56-4FF0ADC03611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD871DCB-BF92-4E1C-8C88-55F86394BCF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4035" yWindow="3105" windowWidth="22740" windowHeight="11535" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -276,14 +276,6 @@
   </si>
   <si>
     <t>Items/donuts</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">プリンセストータの基本
-</t>
-    <rPh sb="9" eb="11">
-      <t>キホン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1184,35 +1176,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">☆基本のバニラパフェの作り方
-①&lt;color=#BA9535FF&gt;ガラスの器&lt;/color&gt;に、目いっぱい&lt;color=#BA9535FF&gt;コーンフレーク&lt;/color&gt;を敷きます。
-②カステラを詰めて、その上に山盛りのアイスクリームをのせます。
-③トッピングに、ホイップクリームといちごをふんだんにのせたら、完成！
-</t>
-    <rPh sb="1" eb="3">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ウツワ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ヤマモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カステラのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1325,6 +1288,122 @@
   </si>
   <si>
     <t>ラスクのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆ストロベリーパフェのレシピ
+①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#FDFF80FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
+②できた土台の上に、&lt;color=#FDFF80FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#FDFF80FF&gt;いちご&lt;/color&gt;をのせたら完成！
+※アレンジレシピ
+①の時に、いちごの代わりにコーンフレークを使い、
+②のいちごを、アイスクリームに変えると..。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキスポンジのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sponge_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/sponge_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタードクリームのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>custard_cream_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/apareiyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジパンのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marzipan_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【プリンセストータのレシピ】
+とってもかわいい緑のケーキ、「プリンセストータ」の秘伝の作り方を教えます。
+まず、最初に、大きく３つの材料が必要です。&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;、&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;
+①事前に用意した&lt;color=#BA9535FF&gt;ケーキスポンジ&lt;/color&gt;に、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をたっぷり重ねて、その上に&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;をのせます。
+②最後の仕上げ。&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;で、ケーキを包みましょう。かわいい、プリンセストータの完成です！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ケーキスポンジのレシピ】
+ケーキの土台となる、ケーキスポンジの作り方をお教えいたします。
+①&lt;color=#BA9535FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜた、アパレイユを作ります。
+②空気を多く含ませるため、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;を使って、生地を混ぜ、焼いたらふわふわスポンジケーキの完成です！
+ウィンドミキサーは高価なものですが、おいしいケーキ作りに欠かせない道具です。ぜひお試しください。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カスタードクリームのレシピ】
+①&lt;color=#BA9535FF&gt;小麦粉・ミルク&lt;/color&gt;、そして&lt;color=#BA9535FF&gt;卵黄&lt;/color&gt;を混ぜたら、おいしいクリームの出来上がりです☆
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【マジパンのレシピ】
+①&lt;color=#BA9535FF&gt;アーモンドプードル・砂糖&lt;/color&gt;、&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;を混ぜたら、おいしいマジパンの完成です☆
+※アレンジレシピ
+さらに出来上がったマジパンに、&lt;color=#BA9535FF&gt;ミント&lt;/color&gt;を混ぜると、&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;が出来ますよ。
+かわいくお菓子をデコってくださいね。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リコッタクリームのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンノーリのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_ricotta_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cannoli_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/apareiyu_white</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/cannoli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【リコッタクリームのレシピ】
+少し大人な味わい。リコッタクリームのレシピです。
+①&lt;color=#BA9535FF&gt;リコッタチーズ&lt;/color&gt;をベースに、&lt;color=#BA9535FF&gt;マルサラ酒&lt;/color&gt;・少量の&lt;color=#BA9535FF&gt;ローズウォーター&lt;/color&gt;を混ぜます。
+よく混ぜ合わせて完成☆　ビターな味わいのクリームです。カンノーリというお菓子にピッタリ！
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カンノーリのレシピ】
+サクサクに少しビターなお酒の味わい！　カンノーリはいかが？
+①まずは、何ものっていないシンプルなクレープ生地を、&lt;color=#FF5CA1FF&gt;フライヤー&lt;/color&gt;で揚げます。
+②出来上がったサクサククレープ生地に、&lt;color=#BA9535FF&gt;リコッタクリーム&lt;/color&gt;と、&lt;color=#BA9535FF&gt;ナッツ&lt;/color&gt;を混ぜたら、はい完成！
+カリカリサクサクで、まさに大人な味わい☆　一風変わったお菓子はいかが？
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1722,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1770,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1779,19 +1858,19 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1833,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1875,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1917,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1959,13 +2038,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1986,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2001,13 +2080,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -2028,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -2043,13 +2122,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -2070,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L8">
         <v>1010</v>
@@ -2085,13 +2164,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2112,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9">
         <v>1020</v>
@@ -2130,10 +2209,10 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -2154,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10">
         <v>1030</v>
@@ -2169,13 +2248,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2196,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L11">
         <v>1040</v>
@@ -2211,13 +2290,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
         <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2238,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2253,13 +2332,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
         <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2280,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13">
         <v>1060</v>
@@ -2295,13 +2374,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2322,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L14">
         <v>1070</v>
@@ -2364,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2385,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2406,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16">
         <v>40</v>
@@ -2427,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2448,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -2532,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19">
         <v>60</v>
@@ -2574,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L20">
         <v>70</v>
@@ -2616,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21">
         <v>80</v>
@@ -2637,7 +2716,7 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2658,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L22">
         <v>90</v>
@@ -2700,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -2742,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24">
         <v>110</v>
@@ -2757,13 +2836,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2784,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25">
         <v>120</v>
@@ -2799,13 +2878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2826,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L26">
         <v>130</v>
@@ -2841,13 +2920,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2868,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L27">
         <v>140</v>
@@ -2910,13 +2989,223 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="L28">
         <v>200</v>
       </c>
       <c r="M28">
         <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29">
+        <v>500</v>
+      </c>
+      <c r="F29">
+        <v>150</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29">
+        <v>210</v>
+      </c>
+      <c r="M29">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="F30">
+        <v>150</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30">
+        <v>220</v>
+      </c>
+      <c r="M30">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31">
+        <v>150</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L31">
+        <v>230</v>
+      </c>
+      <c r="M31">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>150</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L32">
+        <v>240</v>
+      </c>
+      <c r="M32">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>150</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3265,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2985,10 +3274,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2997,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3024,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3039,13 +3328,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3066,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -3081,13 +3370,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3108,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -3123,13 +3412,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3150,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -3165,13 +3454,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3192,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -3207,13 +3496,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3234,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -3249,13 +3538,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3276,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -3291,13 +3580,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3318,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -3333,13 +3622,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3360,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -3375,13 +3664,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3402,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11">
         <v>9999</v>
@@ -3417,13 +3706,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3444,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12">
         <v>9999</v>
@@ -3462,10 +3751,10 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3486,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD871DCB-BF92-4E1C-8C88-55F86394BCF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017AA43-12B5-4D1A-9FDC-CE10AB5E736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3105" windowWidth="22740" windowHeight="11535" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4695" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1803,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3219,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017AA43-12B5-4D1A-9FDC-CE10AB5E736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6DCF5-EB9C-49E3-9CB6-9AC3DE371878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3795" yWindow="2745" windowWidth="21195" windowHeight="10845" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1404,6 +1404,14 @@
 ②出来上がったサクサククレープ生地に、&lt;color=#BA9535FF&gt;リコッタクリーム&lt;/color&gt;と、&lt;color=#BA9535FF&gt;ナッツ&lt;/color&gt;を混ぜたら、はい完成！
 カリカリサクサクで、まさに大人な味わい☆　一風変わったお菓子はいかが？
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/marzipan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/princess_tota</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1803,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2962,7 +2970,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3088,7 +3096,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
         <v>151</v>
@@ -3219,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B6DCF5-EB9C-49E3-9CB6-9AC3DE371878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C660D219-F938-49E2-8053-F493DFE47EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2745" windowWidth="21195" windowHeight="10845" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3735" yWindow="2760" windowWidth="21270" windowHeight="11850" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1811,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -3227,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C660D219-F938-49E2-8053-F493DFE47EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90248A6-0912-46D1-AC43-E61FE3B6B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2760" windowWidth="21270" windowHeight="11850" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1412,6 +1412,34 @@
   </si>
   <si>
     <t>Items/princess_tota</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nekomimi_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒュッケのねこみみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/AcceIcon_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/AcceIcon_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/AcceIcon_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/CostumeIcon_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Icon/CostumeIcon_5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3225,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3290,7 +3318,7 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3336,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>124</v>
@@ -3378,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -3420,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
@@ -3462,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>133</v>
@@ -3588,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3633,10 +3661,10 @@
         <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3672,13 +3700,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3714,13 +3742,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3756,13 +3784,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3777,18 +3805,60 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L13">
         <v>9999</v>
       </c>
       <c r="M13">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>9999</v>
+      </c>
+      <c r="M14">
         <v>9999</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90248A6-0912-46D1-AC43-E61FE3B6B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB478E85-B123-467A-BE72-E1A730AE39AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1839,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3255,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB478E85-B123-467A-BE72-E1A730AE39AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D724F2BB-7E39-42D2-A3D9-742D904124B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="3105" windowWidth="21270" windowHeight="11850" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3600" yWindow="1215" windowWidth="16470" windowHeight="13140" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -681,13 +681,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水着</t>
-    <rPh sb="0" eb="2">
-      <t>ミズギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PinkGoth_Costume</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1111,25 +1104,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黒エプロン</t>
-    <rPh sb="0" eb="1">
-      <t>クロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Meid_Black_Costume</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤いドレス</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピンクリボンドレス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1440,6 +1415,34 @@
   </si>
   <si>
     <t>Icon/CostumeIcon_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクール水着</t>
+    <rPh sb="4" eb="6">
+      <t>ミズギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒いメイドエプロン</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天使のワンピース</t>
+    <rPh sb="0" eb="2">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深紅のハートドレス</t>
+    <rPh sb="0" eb="2">
+      <t>シンク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1839,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1885,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1906,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1948,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1990,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2032,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2074,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2116,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -2158,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -2185,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8">
         <v>1010</v>
@@ -2200,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -2227,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9">
         <v>1020</v>
@@ -2284,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -2311,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L11">
         <v>1040</v>
@@ -2326,13 +2329,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
         <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2353,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2368,13 +2371,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2395,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13">
         <v>1060</v>
@@ -2410,13 +2413,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2437,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14">
         <v>1070</v>
@@ -2479,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2500,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2542,7 +2545,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2563,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20">
         <v>70</v>
@@ -2731,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L21">
         <v>80</v>
@@ -2752,7 +2755,7 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2773,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L22">
         <v>90</v>
@@ -2914,13 +2917,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2941,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L26">
         <v>130</v>
@@ -2956,13 +2959,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2983,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L27">
         <v>140</v>
@@ -2998,7 +3001,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3025,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3040,13 +3043,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3067,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L29">
         <v>210</v>
@@ -3082,13 +3085,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3109,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L30">
         <v>220</v>
@@ -3124,13 +3127,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3151,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L31">
         <v>230</v>
@@ -3166,13 +3169,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3193,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L32">
         <v>240</v>
@@ -3208,13 +3211,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3235,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L33">
         <v>250</v>
@@ -3255,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3301,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -3322,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>73</v>
@@ -3349,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3364,13 +3367,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3406,13 +3409,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3448,13 +3451,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
         <v>171</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3490,13 +3493,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
         <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" t="s">
-        <v>125</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3532,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>82</v>
@@ -3574,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
@@ -3616,13 +3619,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3658,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3700,13 +3703,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3742,13 +3745,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3784,13 +3787,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D724F2BB-7E39-42D2-A3D9-742D904124B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E160944E-52C5-473C-B841-C5ED31FE4A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1215" windowWidth="16470" windowHeight="13140" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3510" yWindow="990" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -429,15 +429,6 @@
 いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
 エメラルドねこクッキーの完成です☆
 キラキラ輝く宝石の味..！　高貴な甘さに、かすかにメロンのような香りが漂います。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">..近くの森では、様々なフルーツや材料が採れる。
-代表的なものは、オレンジ・ぶどう・ナッツなど。
-また、まれにエメラルドシュガーのような、貴重な砂糖が、岩の間にひっかかってることがある。
-また、探索を何度も続けることで、細かなところまで「探す力」が鍛えられる！
-..探索を多く続けると、鳥たちが多く休んでいる憩いの場所を見つけることができるだろう。
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -893,30 +884,6 @@
   </si>
   <si>
     <t>recipibook_7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>豪華さの秘訣</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お菓子を豪華にみせるための、
-秘訣がのっている。</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒケツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1139,10 +1106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Items/strawberry_parfe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ストロベリーパフェのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1442,6 +1405,36 @@
     <t>深紅のハートドレス</t>
     <rPh sb="0" eb="2">
       <t>シンク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/parfe_strawberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレープの秘訣！</t>
+    <rPh sb="5" eb="7">
+      <t>ヒケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">クレープを豪華にみせるための、
+秘訣がのっている。
+&lt;color=#BA9535FF&gt;ベリーを2種類以上&lt;/color&gt;のせると、特別感のあるクレープを演出できるでしょう。
+さらに、&lt;color=#BA9535FF&gt;ミント&lt;/color&gt;を添えると効果的♪　クリームの色と緑色が映えます。
+仕上げ回数が足りない？　それならば..
+パティシエレベルを上げて、&lt;color=#BA9535FF&gt;仕上げ回数を増やす&lt;/color&gt;といいですよ。
+パティシエレベルが&lt;color=#BA9535FF&gt;３&lt;/color&gt;ごとに、仕上げ回数が 増えていくみたいです。
+パティシエレベルが&lt;color=#BA9535FF&gt;５&lt;/color&gt;になると、&lt;color=#BA9535FF&gt;トッピングを2個同時&lt;/color&gt;に、できるようになります。
+この機会に、ぜひ色んなお菓子に挑戦して、腕前をあげてくださいね♪（by タカノ)
+</t>
+    <rPh sb="5" eb="7">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒケツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1842,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1888,7 +1881,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1909,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1951,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1993,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2035,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2077,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2119,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -2145,8 +2138,8 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>64</v>
+      <c r="K7" t="s">
+        <v>20</v>
       </c>
       <c r="L7">
         <v>1000</v>
@@ -2161,13 +2154,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -2188,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L8">
         <v>1010</v>
@@ -2203,13 +2196,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
         <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2230,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L9">
         <v>1020</v>
@@ -2248,10 +2241,10 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
         <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -2272,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10">
         <v>1030</v>
@@ -2287,13 +2280,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2314,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11">
         <v>1040</v>
@@ -2329,13 +2322,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2356,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2371,13 +2364,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2398,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13">
         <v>1060</v>
@@ -2413,13 +2406,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2440,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14">
         <v>1070</v>
@@ -2482,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2503,7 +2496,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2524,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16">
         <v>40</v>
@@ -2545,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2566,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -2650,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19">
         <v>60</v>
@@ -2692,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L20">
         <v>70</v>
@@ -2734,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L21">
         <v>80</v>
@@ -2755,7 +2748,7 @@
         <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2776,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L22">
         <v>90</v>
@@ -2818,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -2917,13 +2910,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2944,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L26">
         <v>130</v>
@@ -2959,13 +2952,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2986,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L27">
         <v>140</v>
@@ -3001,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3028,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3043,13 +3036,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3070,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L29">
         <v>210</v>
@@ -3085,13 +3078,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3112,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L30">
         <v>220</v>
@@ -3127,13 +3120,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3154,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L31">
         <v>230</v>
@@ -3169,13 +3162,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3196,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L32">
         <v>240</v>
@@ -3211,13 +3204,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3238,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L33">
         <v>250</v>
@@ -3258,7 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3304,7 +3297,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -3325,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3352,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3367,13 +3360,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3394,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -3409,13 +3402,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3436,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -3451,14 +3444,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
@@ -3478,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -3493,14 +3486,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
         <v>168</v>
       </c>
-      <c r="C6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -3535,13 +3528,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3562,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -3577,13 +3570,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3604,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -3619,13 +3612,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3646,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -3661,13 +3654,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3688,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -3703,13 +3696,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3730,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11">
         <v>9999</v>
@@ -3745,13 +3738,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3772,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12">
         <v>9999</v>
@@ -3787,13 +3780,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3814,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13">
         <v>9999</v>
@@ -3832,10 +3825,10 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3856,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E160944E-52C5-473C-B841-C5ED31FE4A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02571B64-5E2D-467B-8BD2-1306A48F78B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="990" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3750" yWindow="1545" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1271,26 +1271,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【プリンセストータのレシピ】
-とってもかわいい緑のケーキ、「プリンセストータ」の秘伝の作り方を教えます。
-まず、最初に、大きく３つの材料が必要です。&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;、&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;
-①事前に用意した&lt;color=#BA9535FF&gt;ケーキスポンジ&lt;/color&gt;に、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をたっぷり重ねて、その上に&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;をのせます。
-②最後の仕上げ。&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;で、ケーキを包みましょう。かわいい、プリンセストータの完成です！
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【ケーキスポンジのレシピ】
 ケーキの土台となる、ケーキスポンジの作り方をお教えいたします。
 ①&lt;color=#BA9535FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜた、アパレイユを作ります。
 ②空気を多く含ませるため、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;を使って、生地を混ぜ、焼いたらふわふわスポンジケーキの完成です！
 ウィンドミキサーは高価なものですが、おいしいケーキ作りに欠かせない道具です。ぜひお試しください。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【カスタードクリームのレシピ】
-①&lt;color=#BA9535FF&gt;小麦粉・ミルク&lt;/color&gt;、そして&lt;color=#BA9535FF&gt;卵黄&lt;/color&gt;を混ぜたら、おいしいクリームの出来上がりです☆
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1435,6 +1420,42 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【カスタードクリームのレシピ】
+①まずは、&lt;color=#BA9535FF&gt;砂糖と卵黄&lt;/color&gt;を先に混ぜて液体を作ります。
+②先ほどの液体に、&lt;color=#BA9535FF&gt;小麦粉・ミルク&lt;/color&gt;を混ぜこんで、おいしいクリームの出来上がりです☆
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【プリンセストータのレシピ】
+とってもかわいい緑のケーキ、「プリンセストータ」の秘伝の作り方を教えます。
+まず、最初に、大きく４つの材料が必要です。
+・&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;
+・&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;
+・&lt;color=#BA9535FF&gt;作りたてのクリーム&lt;/color&gt;
+・&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;
+①事前に用意した&lt;color=#BA9535FF&gt;ケーキスポンジ&lt;/color&gt;に、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をたっぷり重ね、その上に&lt;color=#BA9535FF&gt;作りたてのクリーム&lt;/color&gt;をのせます。
+※絞り袋に入れなくてOK！
+②最後の仕上げ。&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;で、ケーキを包みましょう。かわいい、プリンセストータの完成です！
+</t>
+    <rPh sb="165" eb="166">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="322" eb="323">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1835,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2328,7 +2349,7 @@
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2349,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2910,7 +2931,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -2994,7 +3015,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3021,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3063,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L29">
         <v>210</v>
@@ -3105,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="L30">
         <v>220</v>
@@ -3120,7 +3141,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
         <v>143</v>
@@ -3147,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L31">
         <v>230</v>
@@ -3162,13 +3183,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3189,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L32">
         <v>240</v>
@@ -3204,13 +3225,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3231,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L33">
         <v>250</v>
@@ -3366,7 +3387,7 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3408,7 +3429,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3444,13 +3465,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3486,13 +3507,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3696,13 +3717,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3738,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -3780,7 +3801,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02571B64-5E2D-467B-8BD2-1306A48F78B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F51D81-76F1-4D93-9068-7B8090516DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1545" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3015" yWindow="1395" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1405,25 +1405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">クレープを豪華にみせるための、
-秘訣がのっている。
-&lt;color=#BA9535FF&gt;ベリーを2種類以上&lt;/color&gt;のせると、特別感のあるクレープを演出できるでしょう。
-さらに、&lt;color=#BA9535FF&gt;ミント&lt;/color&gt;を添えると効果的♪　クリームの色と緑色が映えます。
-仕上げ回数が足りない？　それならば..
-パティシエレベルを上げて、&lt;color=#BA9535FF&gt;仕上げ回数を増やす&lt;/color&gt;といいですよ。
-パティシエレベルが&lt;color=#BA9535FF&gt;３&lt;/color&gt;ごとに、仕上げ回数が 増えていくみたいです。
-パティシエレベルが&lt;color=#BA9535FF&gt;５&lt;/color&gt;になると、&lt;color=#BA9535FF&gt;トッピングを2個同時&lt;/color&gt;に、できるようになります。
-この機会に、ぜひ色んなお菓子に挑戦して、腕前をあげてくださいね♪（by タカノ)
-</t>
-    <rPh sb="5" eb="7">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【カスタードクリームのレシピ】
 ①まずは、&lt;color=#BA9535FF&gt;砂糖と卵黄&lt;/color&gt;を先に混ぜて液体を作ります。
 ②先ほどの液体に、&lt;color=#BA9535FF&gt;小麦粉・ミルク&lt;/color&gt;を混ぜこんで、おいしいクリームの出来上がりです☆
@@ -1456,6 +1437,27 @@
     </rPh>
     <rPh sb="351" eb="352">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">クレープを豪華にみせるための、
+秘訣がのっている。
+ベリーを2種類以上のせると、特別感のあるクレープを演出できるでしょう。たとえば、
+シンプルなクレープに、&lt;color=#BA9535FF&gt;ストロベリー&lt;/color&gt;と&lt;color=#BA9535FF&gt;ブルーベリー&lt;/color&gt;をのせると..
+見た目華やかな甘酸っぱいダブルベリークレープができます。
+さらに、&lt;color=#BA9535FF&gt;ミント&lt;/color&gt;を添えると効果的♪　クリームの色と緑色が映えます。
+仕上げ回数が足りない？　それならば..
+パティシエレベルを上げて、&lt;color=#BA9535FF&gt;仕上げ回数を増やす&lt;/color&gt;といいですよ。
+パティシエレベルが&lt;color=#BA9535FF&gt;３&lt;/color&gt;ごとに、仕上げ回数が 増えていくみたいです。
+パティシエレベルが&lt;color=#BA9535FF&gt;５&lt;/color&gt;になると、&lt;color=#BA9535FF&gt;トッピングを2個同時&lt;/color&gt;に、できるようになります。
+この機会に、ぜひ色んなお菓子に挑戦して、腕前をあげてくださいね♪（by タカノ)
+</t>
+    <rPh sb="5" eb="7">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒケツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1856,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2370,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -3042,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3126,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L30">
         <v>220</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F51D81-76F1-4D93-9068-7B8090516DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1CD7B-209E-4FD6-92C9-0AD4E7017F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1395" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1229,16 +1229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">☆ストロベリーパフェのレシピ
-①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#FDFF80FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
-②できた土台の上に、&lt;color=#FDFF80FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#FDFF80FF&gt;いちご&lt;/color&gt;をのせたら完成！
-※アレンジレシピ
-①の時に、いちごの代わりにコーンフレークを使い、
-②のいちごを、アイスクリームに変えると..。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケーキスポンジのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1443,14 +1433,10 @@
   <si>
     <t xml:space="preserve">クレープを豪華にみせるための、
 秘訣がのっている。
-ベリーを2種類以上のせると、特別感のあるクレープを演出できるでしょう。たとえば、
-シンプルなクレープに、&lt;color=#BA9535FF&gt;ストロベリー&lt;/color&gt;と&lt;color=#BA9535FF&gt;ブルーベリー&lt;/color&gt;をのせると..
-見た目華やかな甘酸っぱいダブルベリークレープができます。
+シンプルなクレープに、&lt;color=#BA9535FF&gt;ベリーを2種類以上&lt;/color&gt;のせると、相性がいいようです。
 さらに、&lt;color=#BA9535FF&gt;ミント&lt;/color&gt;を添えると効果的♪　クリームの色と緑色が映えます。
 仕上げ回数が足りない？　それならば..
 パティシエレベルを上げて、&lt;color=#BA9535FF&gt;仕上げ回数を増やす&lt;/color&gt;といいですよ。
-パティシエレベルが&lt;color=#BA9535FF&gt;３&lt;/color&gt;ごとに、仕上げ回数が 増えていくみたいです。
-パティシエレベルが&lt;color=#BA9535FF&gt;５&lt;/color&gt;になると、&lt;color=#BA9535FF&gt;トッピングを2個同時&lt;/color&gt;に、できるようになります。
 この機会に、ぜひ色んなお菓子に挑戦して、腕前をあげてくださいね♪（by タカノ)
 </t>
     <rPh sb="5" eb="7">
@@ -1459,6 +1445,16 @@
     <rPh sb="16" eb="18">
       <t>ヒケツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆ストロベリーパフェのレシピ
+①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
+②できた土台の上に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;をのせたら完成！
+※アレンジレシピ
+①の時に、いちごの代わりにコーンフレークを使い、
+②のいちごを、アイスクリームに変えると..。
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1858,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2351,7 +2347,7 @@
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2372,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2933,7 +2929,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -2960,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L26">
         <v>130</v>
@@ -3017,7 +3013,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3044,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L28">
         <v>200</v>
@@ -3059,13 +3055,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3086,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29">
         <v>210</v>
@@ -3101,13 +3097,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3128,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L30">
         <v>220</v>
@@ -3143,13 +3139,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3170,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L31">
         <v>230</v>
@@ -3185,13 +3181,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3212,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L32">
         <v>240</v>
@@ -3227,13 +3223,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3254,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L33">
         <v>250</v>
@@ -3389,7 +3385,7 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3431,7 +3427,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3467,13 +3463,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3509,13 +3505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3719,13 +3715,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
         <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>157</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3761,7 +3757,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>123</v>
@@ -3803,7 +3799,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE1CD7B-209E-4FD6-92C9-0AD4E7017F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77560F66-EA4F-4FD5-BD78-78F82D7CD614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -902,41 +902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【バゲットのレシピ】
-プリン姉さんの直伝！
-小麦粉：水　＝　
-&lt;color=#BA9535FF&gt;４：１&lt;/color&gt;
-ちょっと粉っぽく固いらしい。
-もう少し小麦粉の量を減らせば、
-ラスク向けに良いかも！
-</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>キジコムギコイマアキジツクスコネキジテキドオオキトイア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【アイスクリームのレシピ】
 ①&lt;color=#BA9535FF&gt;ミルク・砂糖・バニラエッセンス&lt;/color&gt;を数滴まぜ、液体を作ります。
 ②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れると良いでしょう。
@@ -1455,6 +1420,29 @@
 ①の時に、いちごの代わりにコーンフレークを使い、
 ②のいちごを、アイスクリームに変えると..。
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【バゲットのレシピ】
+おいしいパンの焼き方よ♪
+&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;と、&lt;color=#BA9535FF&gt;水&lt;/color&gt;をこねこねして焼きます。
+&lt;color=#BA9535FF&gt;7 : 6 &lt;/color&gt;
+</t>
+    <rPh sb="19" eb="20">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1854,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1900,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2173,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2200,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8">
         <v>1010</v>
@@ -2299,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
@@ -2347,7 +2335,7 @@
         <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -2368,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L12">
         <v>1050</v>
@@ -2383,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
@@ -2410,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13">
         <v>1060</v>
@@ -2428,10 +2416,10 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2452,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14">
         <v>1070</v>
@@ -2467,13 +2455,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2485,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2494,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2509,13 +2497,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2536,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2551,19 +2539,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2578,13 +2566,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2593,13 +2581,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2620,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2635,13 +2623,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2662,13 +2650,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2677,13 +2665,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2704,13 +2692,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2719,13 +2707,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2746,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="L21">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M21">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2761,13 +2749,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2788,13 +2776,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2803,13 +2791,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2830,13 +2818,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2845,13 +2833,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2872,13 +2860,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M24">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2887,13 +2875,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2914,13 +2902,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="L25">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M25">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2929,13 +2917,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>127</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2956,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L26">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M26">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2971,13 +2959,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2998,13 +2986,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="L27">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="M27">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3013,13 +3001,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -3040,13 +3028,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3055,13 +3043,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
         <v>137</v>
-      </c>
-      <c r="C29" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3082,13 +3070,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="L29">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M29">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3097,13 +3085,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
         <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" t="s">
-        <v>138</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3124,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="L30">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M30">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3139,13 +3127,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3166,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L31">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M31">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3211,10 +3199,10 @@
         <v>151</v>
       </c>
       <c r="L32">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M32">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3223,13 +3211,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3250,13 +3238,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L33">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M33">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3316,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -3337,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -3364,7 +3352,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3379,13 +3367,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3421,13 +3409,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3463,13 +3451,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3505,13 +3493,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3547,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>81</v>
@@ -3589,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -3631,13 +3619,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3673,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -3715,13 +3703,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
         <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>156</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3757,13 +3745,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3799,13 +3787,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77560F66-EA4F-4FD5-BD78-78F82D7CD614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB43E4-9DF9-4D6F-A1A6-A417E7716B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2475" yWindow="900" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1442,6 +1442,50 @@
     </rPh>
     <rPh sb="89" eb="90">
       <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/jewery_candy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝石キャンディのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jewery_candy_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【宝石キャンディのレシピ】
+・&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;
+・&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;
+・&lt;color=#BA9535FF&gt;水 &lt;/color&gt;を火で溶かしながら、混ぜて冷やすと出来上がり！
+</t>
+    <rPh sb="1" eb="3">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="125" eb="128">
+      <t>デキア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1840,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1905,7 +1949,7 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A34" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2455,13 +2499,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2482,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2497,19 +2541,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2524,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2539,19 +2583,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2566,13 +2610,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2581,19 +2625,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="E18">
         <v>500</v>
       </c>
       <c r="F18">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2608,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2623,13 +2667,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2650,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2665,13 +2709,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2692,13 +2736,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2707,13 +2751,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2734,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="L21">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M21">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2749,13 +2793,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2776,13 +2820,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2791,13 +2835,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2818,13 +2862,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L23">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M23">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2833,13 +2877,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2860,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L24">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M24">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2875,13 +2919,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2902,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="L25">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M25">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2917,13 +2961,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2944,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="L26">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M26">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2959,13 +3003,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -2986,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="L27">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M27">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3001,13 +3045,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -3028,13 +3072,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="L28">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M28">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3043,13 +3087,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3070,13 +3114,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="L29">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M29">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3085,13 +3129,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3112,13 +3156,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="L30">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M30">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3127,13 +3171,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3154,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L31">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M31">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3169,13 +3213,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3196,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L32">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M32">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3211,13 +3255,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3238,12 +3282,54 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L33">
+        <v>250</v>
+      </c>
+      <c r="M33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>500</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L33">
+      <c r="L34">
         <v>260</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>260</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB43E4-9DF9-4D6F-A1A6-A417E7716B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B1211-B0E7-4512-AEFC-74B32B24BD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="900" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3795" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1486,6 +1486,158 @@
     </rPh>
     <rPh sb="125" eb="128">
       <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coffee_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティラミスのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiramisu_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/coffee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/tiramisu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【コーヒーのレシピ】
+おいしいコーヒーの淹れ方
+&lt;color=#BA9535FF&gt;コーヒー豆&lt;/color&gt;をひき、&lt;color=#BA9535FF&gt;水&lt;/color&gt;をいれ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でひと煮立ちしたら出来上がり。
+コーヒー豆と水は、&lt;color=#BA9535FF&gt;4:1&lt;/color&gt;ぐらいがほどよい苦さでマイルドです。
+</t>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ニタ</t>
+    </rPh>
+    <rPh sb="126" eb="129">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>ニガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ティラミスのレシピ】
+イタリア伝統のお菓子、ティラミスの作り方です。
+事前準備：
+・コーヒー
+・ココアクッキー
+は先に作っておきましょう。
+①&lt;color=#BA9535FF&gt;小麦粉・卵黄&lt;/color&gt;を混ぜ、黄色い生地を作ります。
+②その生地に、&lt;color=#BA9535FF&gt;マルサラワイン、クリームチーズ&lt;/color&gt;をいれ、あたためながら混ぜましょう。
+ベースとなるクリーム生地ができます。
+③先に&lt;color=#BA9535FF&gt;コーヒー&lt;/color&gt;を用意しておき、&lt;color=#BA9535FF&gt;ココアクッキー&lt;/color&gt;にコーヒーを少しずつ淹れ、浸します。
+④　③のベースに、①で作った生地を流しいれ、ココアパウダーをかけたら完成です♪
+</t>
+    <rPh sb="17" eb="19">
+      <t>デントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="286" eb="287">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="293" eb="294">
+      <t>ヒタ</t>
+    </rPh>
+    <rPh sb="311" eb="312">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="314" eb="316">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="317" eb="318">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1884,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1949,7 +2101,7 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A34" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A36" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3331,6 +3483,90 @@
       </c>
       <c r="M34">
         <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35">
+        <v>500</v>
+      </c>
+      <c r="F35">
+        <v>150</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35">
+        <v>270</v>
+      </c>
+      <c r="M35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36">
+        <v>500</v>
+      </c>
+      <c r="F36">
+        <v>150</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L36">
+        <v>280</v>
+      </c>
+      <c r="M36">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B1211-B0E7-4512-AEFC-74B32B24BD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477A665-D208-4BA0-A882-A663C6C18441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3795" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
@@ -1555,7 +1555,7 @@
 ・コーヒー
 ・ココアクッキー
 は先に作っておきましょう。
-①&lt;color=#BA9535FF&gt;小麦粉・卵黄&lt;/color&gt;を混ぜ、黄色い生地を作ります。
+①&lt;color=#BA9535FF&gt;砂糖・卵黄&lt;/color&gt;を混ぜ、黄色い生地を作ります。
 ②その生地に、&lt;color=#BA9535FF&gt;マルサラワイン、クリームチーズ&lt;/color&gt;をいれ、あたためながら混ぜましょう。
 ベースとなるクリーム生地ができます。
 ③先に&lt;color=#BA9535FF&gt;コーヒー&lt;/color&gt;を用意しておき、&lt;color=#BA9535FF&gt;ココアクッキー&lt;/color&gt;にコーヒーを少しずつ淹れ、浸します。
@@ -1585,58 +1585,58 @@
     <rPh sb="61" eb="62">
       <t>ツク</t>
     </rPh>
-    <rPh sb="91" eb="94">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
+    <rPh sb="91" eb="93">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
       <t>ランオウ</t>
     </rPh>
-    <rPh sb="106" eb="107">
+    <rPh sb="105" eb="106">
       <t>マ</t>
     </rPh>
-    <rPh sb="109" eb="111">
+    <rPh sb="108" eb="110">
       <t>キイロ</t>
     </rPh>
-    <rPh sb="112" eb="114">
+    <rPh sb="111" eb="113">
       <t>キジ</t>
     </rPh>
-    <rPh sb="115" eb="116">
+    <rPh sb="114" eb="115">
       <t>ツク</t>
     </rPh>
-    <rPh sb="125" eb="127">
+    <rPh sb="124" eb="126">
       <t>キジ</t>
     </rPh>
-    <rPh sb="180" eb="181">
+    <rPh sb="179" eb="180">
       <t>マ</t>
     </rPh>
-    <rPh sb="198" eb="200">
+    <rPh sb="197" eb="199">
       <t>キジ</t>
     </rPh>
-    <rPh sb="209" eb="210">
+    <rPh sb="208" eb="209">
       <t>サキ</t>
     </rPh>
-    <rPh sb="241" eb="243">
+    <rPh sb="240" eb="242">
       <t>ヨウイ</t>
     </rPh>
-    <rPh sb="286" eb="287">
+    <rPh sb="285" eb="286">
       <t>スコ</t>
     </rPh>
-    <rPh sb="290" eb="291">
+    <rPh sb="289" eb="290">
       <t>イ</t>
     </rPh>
-    <rPh sb="293" eb="294">
+    <rPh sb="292" eb="293">
       <t>ヒタ</t>
     </rPh>
-    <rPh sb="311" eb="312">
+    <rPh sb="310" eb="311">
       <t>ツク</t>
     </rPh>
-    <rPh sb="314" eb="316">
+    <rPh sb="313" eb="315">
       <t>キジ</t>
     </rPh>
-    <rPh sb="317" eb="318">
+    <rPh sb="316" eb="317">
       <t>ナガ</t>
     </rPh>
-    <rPh sb="334" eb="336">
+    <rPh sb="333" eb="335">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2039,7 +2039,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4477A665-D208-4BA0-A882-A663C6C18441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83866671-998E-4239-B2E4-AC6537367E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1680" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3810" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="188">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -421,15 +421,6 @@
     <rPh sb="15" eb="16">
       <t>ヘン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">いつものクッキーを砂糖抜きで作ると、簡単にノンシュガードロップクッキーが作れます☆
-砂糖ぬきなので、ヘルシーで太らない！
-いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
-エメラルドねこクッキーの完成です☆
-キラキラ輝く宝石の味..！　高貴な甘さに、かすかにメロンのような香りが漂います。
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1639,6 +1630,78 @@
     <rPh sb="333" eb="335">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーのレシピ＜上級＞</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
+☆全てのクッキーのための本☆
+・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
+・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;
+・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;
+【コラム】
+・お店のトッピングアイテム5種類とさくらの花びらで、クッキーが作れるよ。
+・ココアパウダーも、仕上げにいれると、ココア味のクッキーができる！
+</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつものクッキーを砂糖抜きで作ると、簡単にノンシュガードロップクッキーが作れます☆
+砂糖ぬきなので、ヘルシーで太らない！
+いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
+エメラルドねこクッキーの完成です☆
+キラキラ輝く宝石の味..！　高貴な甘さに、かすかにメロンのような香りが漂います。
+☆ナッツの効果について
+見た目は変化がなさそうなナッツですが、
+&lt;color=#FDFF80FF&gt;サクサク度が少し&lt;/color&gt;上がります。
+とりあえずトッピングしておくのも悪くはない..かも？</t>
+    <rPh sb="224" eb="225">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/recipibook2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2036,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2084,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2101,11 +2164,11 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A36" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2147,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2189,7 +2252,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2231,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2273,7 +2336,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2300,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2315,7 +2378,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -2357,19 +2420,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>500</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2384,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="L8">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="M8">
-        <v>1010</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2399,19 +2462,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="E9">
         <v>500</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2426,13 +2489,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
       <c r="L9">
-        <v>1020</v>
+        <v>1050</v>
       </c>
       <c r="M9">
-        <v>1020</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2441,19 +2504,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>500</v>
       </c>
       <c r="F10">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2468,13 +2531,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="L10">
-        <v>1030</v>
+        <v>1070</v>
       </c>
       <c r="M10">
-        <v>1030</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2483,19 +2546,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>500</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2510,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="L11">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="M11">
-        <v>1040</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2525,19 +2588,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2552,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L12">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="M12">
-        <v>1050</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2567,19 +2630,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2594,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="L13">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="M13">
-        <v>1060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2609,19 +2672,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2636,13 +2699,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="L14">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="M14">
-        <v>1070</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2651,19 +2714,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>500</v>
       </c>
       <c r="F15">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2681,10 +2744,10 @@
         <v>100</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>1060</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2693,19 +2756,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2720,13 +2783,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2735,19 +2798,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2762,13 +2825,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2777,13 +2840,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2804,13 +2867,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2819,19 +2882,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>500</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2846,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2861,13 +2924,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2888,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2903,13 +2966,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2933,10 +2996,10 @@
         <v>93</v>
       </c>
       <c r="L21">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2945,13 +3008,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2972,13 +3035,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M22">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2987,13 +3050,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -3014,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M23">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3029,13 +3092,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -3056,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="L24">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M24">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3071,13 +3134,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -3098,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L25">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="M25">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3113,13 +3176,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -3140,13 +3203,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="L26">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M26">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3155,13 +3218,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -3182,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L27">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M27">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3197,13 +3260,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -3224,13 +3287,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3239,13 +3302,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3266,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="L29">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M29">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3281,13 +3344,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3308,13 +3371,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L30">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M30">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3323,13 +3386,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3350,13 +3413,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="L31">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M31">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3365,13 +3428,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3392,13 +3455,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L32">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M32">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3407,13 +3470,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3434,13 +3497,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L33">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M33">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3449,13 +3512,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -3476,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="L34">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M34">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3491,13 +3554,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -3518,13 +3581,13 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L35">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M35">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3533,13 +3596,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -3560,12 +3623,54 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L36">
+        <v>270</v>
+      </c>
+      <c r="M36">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>150</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37">
         <v>280</v>
       </c>
-      <c r="M36">
+      <c r="M37">
         <v>280</v>
       </c>
     </row>
@@ -3626,7 +3731,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -3647,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3674,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3689,13 +3794,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3716,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -3731,13 +3836,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3758,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -3773,13 +3878,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3800,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -3815,13 +3920,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3842,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -3857,13 +3962,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3884,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -3899,13 +4004,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3926,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -3941,13 +4046,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3968,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -3983,13 +4088,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4010,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -4025,14 +4130,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
         <v>154</v>
       </c>
-      <c r="D11" t="s">
-        <v>155</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -4052,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11">
         <v>9999</v>
@@ -4067,13 +4172,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4094,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12">
         <v>9999</v>
@@ -4109,13 +4214,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4136,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13">
         <v>9999</v>
@@ -4154,10 +4259,10 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4178,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L14">
         <v>9999</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83866671-998E-4239-B2E4-AC6537367E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BDCED-7B39-4FF7-837D-1BE9851E47A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" firstSheet="1" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1644,48 +1644,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
-☆全てのクッキーのための本☆
-・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
-・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;
-・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;
-【コラム】
-・お店のトッピングアイテム5種類とさくらの花びらで、クッキーが作れるよ。
-・ココアパウダーも、仕上げにいれると、ココア味のクッキーができる！
-</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いつものクッキーを砂糖抜きで作ると、簡単にノンシュガードロップクッキーが作れます☆
 砂糖ぬきなので、ヘルシーで太らない！
 いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
@@ -1702,6 +1660,43 @@
   </si>
   <si>
     <t>Items/recipibook2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
+☆全てのクッキーのための本☆
+・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
+・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;
+・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;
+それぞれ仕上げで入れてみると.. おいしいクッキーが出来上がるよ！
+【コラム】
+・お店のトッピングアイテム5種類とさくらの花びらで、クッキーが作れるよ。
+まずは、トッピングを一つ一つ、試してみよう！
+</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ツク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2101,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2363,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2546,7 +2541,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>183</v>
@@ -2573,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -3685,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19BDCED-7B39-4FF7-837D-1BE9851E47A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CC7F63-C256-4E45-A746-93086F8D14F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" firstSheet="1" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2790" yWindow="1035" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="191">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1696,6 +1696,23 @@
     </rPh>
     <rPh sb="271" eb="272">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テストのレシピ
+何もかかれていない。
+</t>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2094,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2159,7 +2176,7 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A37" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3667,6 +3684,48 @@
       </c>
       <c r="M37">
         <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38">
+        <v>500</v>
+      </c>
+      <c r="F38">
+        <v>150</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38">
+        <v>290</v>
+      </c>
+      <c r="M38">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3680,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CC7F63-C256-4E45-A746-93086F8D14F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC76B3-89A7-4348-9BE0-23E7AC1EB139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1035" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -681,56 +681,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">☆お茶の淹れかた
-①茶の素となる&lt;color=#BA9535FF&gt;葉っぱ・花&lt;/color&gt;を集めましょう。
-②集めたお茶っぱに、&lt;color=#BA9535FF&gt;水&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でふつふつと沸かしたら出来上がり！
-茶葉　：　水　＝　&lt;color=#BA9535FF&gt;3　：　1&lt;/color&gt;
-</t>
-    <rPh sb="2" eb="3">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>チャ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="135" eb="138">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">童話：「アイスの実の森」
 ..おにいちゃんといもうとは、長くて深い森をひたすら進んでいきます。
 あまりにも森は深いため、帰り道が分からなくなってしまいました。
@@ -1713,6 +1663,60 @@
 </t>
     <rPh sb="9" eb="10">
       <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆お茶の淹れかた
+①茶の素となる&lt;color=#BA9535FF&gt;葉っぱ・花&lt;/color&gt;を集めましょう。
+②集めたお茶っぱに、&lt;color=#BA9535FF&gt;水&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でふつふつと沸かしたら出来上がり！
+茶葉　：　水　＝　&lt;color=#BA9535FF&gt;3　：　1&lt;/color&gt;
+☆水出しのお茶について。
+茶葉によっては、煮だす方法だと、成分が出すぎてしまい、苦さで飲めなくなってしまいます。
+そんなときは、お鍋の代わりに、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;を使って、冷えた水で、じっくり抽出してみましょう。
+こうすることで、ほのかで優しい香りの水出し茶が出来ます。
+</t>
+    <rPh sb="2" eb="3">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="135" eb="138">
+      <t>デキア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2113,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2159,7 +2163,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2180,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2222,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2264,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -2306,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2348,7 +2352,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2375,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2390,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -2432,7 +2436,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -2459,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8">
         <v>1020</v>
@@ -2474,13 +2478,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2501,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L9">
         <v>1050</v>
@@ -2516,13 +2520,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -2543,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10">
         <v>1070</v>
@@ -2558,13 +2562,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
         <v>183</v>
-      </c>
-      <c r="D11" t="s">
-        <v>184</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2585,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -2600,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
@@ -2627,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12">
         <v>1010</v>
@@ -2684,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
@@ -2711,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="L14">
         <v>1040</v>
@@ -2726,13 +2730,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
         <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>98</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2753,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L15">
         <v>1060</v>
@@ -2774,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2795,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -2858,7 +2862,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2894,13 +2898,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
         <v>171</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" t="s">
-        <v>172</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2921,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L19">
         <v>50</v>
@@ -3005,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21">
         <v>70</v>
@@ -3047,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L22">
         <v>80</v>
@@ -3068,7 +3072,7 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -3089,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L23">
         <v>90</v>
@@ -3230,13 +3234,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -3257,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L27">
         <v>130</v>
@@ -3272,13 +3276,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -3299,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L28">
         <v>140</v>
@@ -3314,7 +3318,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3341,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L29">
         <v>200</v>
@@ -3356,13 +3360,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3383,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L30">
         <v>210</v>
@@ -3398,13 +3402,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3425,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L31">
         <v>220</v>
@@ -3440,13 +3444,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3467,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L32">
         <v>230</v>
@@ -3482,13 +3486,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3509,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L33">
         <v>240</v>
@@ -3524,13 +3528,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -3551,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L34">
         <v>250</v>
@@ -3593,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L35">
         <v>260</v>
@@ -3608,13 +3612,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" t="s">
         <v>175</v>
-      </c>
-      <c r="D36" t="s">
-        <v>176</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -3635,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L36">
         <v>270</v>
@@ -3650,13 +3654,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37">
         <v>500</v>
@@ -3677,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L37">
         <v>280</v>
@@ -3692,13 +3696,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" t="s">
         <v>188</v>
-      </c>
-      <c r="D38" t="s">
-        <v>189</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -3719,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L38">
         <v>290</v>
@@ -3785,7 +3789,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -3806,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -3833,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -3848,13 +3852,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3890,13 +3894,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3932,13 +3936,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3974,13 +3978,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4016,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>80</v>
@@ -4058,7 +4062,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -4100,13 +4104,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4142,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -4184,13 +4188,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
         <v>153</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4226,13 +4230,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4268,13 +4272,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC76B3-89A7-4348-9BE0-23E7AC1EB139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976686BF-AC90-4702-A215-A6994525DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3540" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1167,15 +1167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【ケーキスポンジのレシピ】
-ケーキの土台となる、ケーキスポンジの作り方をお教えいたします。
-①&lt;color=#BA9535FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜた、アパレイユを作ります。
-②空気を多く含ませるため、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;を使って、生地を混ぜ、焼いたらふわふわスポンジケーキの完成です！
-ウィンドミキサーは高価なものですが、おいしいケーキ作りに欠かせない道具です。ぜひお試しください。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【マジパンのレシピ】
 ①&lt;color=#BA9535FF&gt;アーモンドプードル・砂糖&lt;/color&gt;、&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;を混ぜたら、おいしいマジパンの完成です☆
 ※アレンジレシピ
@@ -1305,35 +1296,6 @@
 ①まずは、&lt;color=#BA9535FF&gt;砂糖と卵黄&lt;/color&gt;を先に混ぜて液体を作ります。
 ②先ほどの液体に、&lt;color=#BA9535FF&gt;小麦粉・ミルク&lt;/color&gt;を混ぜこんで、おいしいクリームの出来上がりです☆
 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【プリンセストータのレシピ】
-とってもかわいい緑のケーキ、「プリンセストータ」の秘伝の作り方を教えます。
-まず、最初に、大きく４つの材料が必要です。
-・&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;
-・&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;
-・&lt;color=#BA9535FF&gt;作りたてのクリーム&lt;/color&gt;
-・&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;
-①事前に用意した&lt;color=#BA9535FF&gt;ケーキスポンジ&lt;/color&gt;に、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をたっぷり重ね、その上に&lt;color=#BA9535FF&gt;作りたてのクリーム&lt;/color&gt;をのせます。
-※絞り袋に入れなくてOK！
-②最後の仕上げ。&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;で、ケーキを包みましょう。かわいい、プリンセストータの完成です！
-</t>
-    <rPh sb="165" eb="166">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="322" eb="323">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="347" eb="348">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="351" eb="352">
-      <t>イ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1717,6 +1679,67 @@
     </rPh>
     <rPh sb="135" eb="138">
       <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ケーキスポンジのレシピ】
+ケーキの土台となる、ケーキスポンジの作り方をお教えいたします。
+①&lt;color=#BA9535FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜた、アパレイユを作ります。
+②アパレイユに&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で、生地を混ぜます。
+焼いたらふわふわスポンジケーキの完成です！
+ウィンドミキサーは高価なものですが、おいしいケーキ作りに欠かせない道具です。ぜひお試しください。
+</t>
+    <rPh sb="126" eb="129">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【プリンセストータのレシピ】
+とってもかわいい緑のケーキ、「プリンセストータ」の秘伝の作り方を教えます。
+まず、最初に、大きく４つの材料が必要です。
+・&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;
+・&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;
+・&lt;color=#BA9535FF&gt;作りたてのクリーム&lt;/color&gt;
+・仕上げ用の&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;
+それぞれは、事前にたっぷり用意しておきましょう。
+①事前に用意した&lt;color=#BA9535FF&gt;ケーキスポンジ&lt;/color&gt;に、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をたっぷり重ね、さらに&lt;color=#BA9535FF&gt;作りたてのクリーム&lt;/color&gt;をのせます。
+※絞り袋に入れなくてOK！　３つの材料は同時に選んでね。
+②最後の仕上げ。&lt;color=#BA9535FF&gt;緑のマジパン&lt;/color&gt;で、ケーキを包みましょう。かわいい、プリンセストータの完成です！
+</t>
+    <rPh sb="165" eb="166">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="377" eb="378">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="379" eb="380">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="381" eb="382">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="393" eb="395">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="396" eb="398">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="399" eb="400">
+      <t>エラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2117,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2379,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2484,7 +2507,7 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2505,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L9">
         <v>1050</v>
@@ -2562,13 +2585,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2589,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -2715,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L14">
         <v>1040</v>
@@ -2898,13 +2921,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
         <v>170</v>
       </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2925,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L19">
         <v>50</v>
@@ -3234,7 +3257,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
         <v>125</v>
@@ -3261,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L27">
         <v>130</v>
@@ -3318,7 +3341,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3345,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="L29">
         <v>200</v>
@@ -3387,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="L30">
         <v>210</v>
@@ -3429,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L31">
         <v>220</v>
@@ -3444,7 +3467,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
         <v>139</v>
@@ -3471,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L32">
         <v>230</v>
@@ -3486,13 +3509,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3513,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L33">
         <v>240</v>
@@ -3528,13 +3551,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -3555,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L34">
         <v>250</v>
@@ -3597,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L35">
         <v>260</v>
@@ -3612,13 +3635,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -3639,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L36">
         <v>270</v>
@@ -3654,13 +3677,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E37">
         <v>500</v>
@@ -3681,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L37">
         <v>280</v>
@@ -3696,13 +3719,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -3723,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L38">
         <v>290</v>
@@ -3858,7 +3881,7 @@
         <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3900,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3936,13 +3959,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3978,13 +4001,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4188,13 +4211,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
         <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>153</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4230,7 +4253,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -4272,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976686BF-AC90-4702-A215-A6994525DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162038E7-E416-4F5D-A36B-06B498CC98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1305" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1075,62 +1075,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
-①砂糖・水にゼラチンパウダーを加えて混ぜる。
-②出来た液体＜ジェリーウォーター＞を、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れて冷やすと、ぷるぷるに♪
-水を、別の液体に変えても、きれいなのが出来るかも。
-</t>
-    <rPh sb="8" eb="10">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ラスクのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1316,16 +1260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">☆ストロベリーパフェのレシピ
-①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
-②できた土台の上に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;をのせたら完成！
-※アレンジレシピ
-①の時に、いちごの代わりにコーンフレークを使い、
-②のいちごを、アイスクリームに変えると..。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【バゲットのレシピ】
 おいしいパンの焼き方よ♪
 &lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;と、&lt;color=#BA9535FF&gt;水&lt;/color&gt;をこねこねして焼きます。
@@ -1358,38 +1292,6 @@
   </si>
   <si>
     <t>jewery_candy_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【宝石キャンディのレシピ】
-・&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;
-・&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;
-・&lt;color=#BA9535FF&gt;水 &lt;/color&gt;を火で溶かしながら、混ぜて冷やすと出来上がり！
-</t>
-    <rPh sb="1" eb="3">
-      <t>ホウセキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="125" eb="128">
-      <t>デキア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1575,43 +1477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
-☆全てのクッキーのための本☆
-・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
-・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;
-・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;
-それぞれ仕上げで入れてみると.. おいしいクッキーが出来上がるよ！
-【コラム】
-・お店のトッピングアイテム5種類とさくらの花びらで、クッキーが作れるよ。
-まずは、トッピングを一つ一つ、試してみよう！
-</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="261" eb="262">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="271" eb="272">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>test_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1740,6 +1605,179 @@
     </rPh>
     <rPh sb="399" eb="400">
       <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【宝石キャンディのレシピ】
+①&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;
+&lt;color=#BA9535FF&gt;水 &lt;/color&gt;
+2つを混ぜ合わせ、砂糖水を作ります。
+②砂糖水に、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;
+を加え、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;で火で溶かして、冷ますと出来上がり！
+</t>
+    <rPh sb="1" eb="3">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="177" eb="180">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
+☆全てのクッキーのための本☆
+・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
+・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;をかけて焼く。
+・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;をトッピング！
+・梨クッキー　・・・　クッキーの仕上げに、&lt;color=#BA9535FF&gt;梨&lt;/color&gt;を混ぜ、焼く。
+それぞれ仕上げで入れてみると.. おいしいクッキーが出来上がるよ！
+【コラム】
+・お店のキラキラトッピング5種類とさくらの花びらで、クッキーが作れるよ。
+【コラム２　やばいクッキー】
+・クッキーの仕上げに、へんな草やむらさキノコを入れると..　。
+</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="313" eb="314">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="332" eb="333">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="342" eb="343">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;にを加えて混ぜる。砂糖水ができる。
+②出来た液体に、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を混ぜて、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れて冷やすと、ぷるぷるに♪
+水を、別の液体に変えても、きれいなのが出来るかも。
+</t>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆ストロベリーパフェのレシピ
+★事前に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;と、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;は準備しておきましょう！
+①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
+②できた土台の上に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;をのせたら完成！
+※アレンジレシピ
+①の時に、いちごの代わりにコーンフレークを使い、
+②のいちごを、アイスクリームに変えると..。
+</t>
+    <rPh sb="17" eb="19">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2140,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2402,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2507,7 +2545,7 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2528,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L9">
         <v>1050</v>
@@ -2585,13 +2623,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2612,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -2738,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L14">
         <v>1040</v>
@@ -2885,7 +2923,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2921,13 +2959,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
         <v>168</v>
       </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2948,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L19">
         <v>50</v>
@@ -3116,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="L23">
         <v>90</v>
@@ -3257,7 +3295,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>125</v>
@@ -3284,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="L27">
         <v>130</v>
@@ -3341,7 +3379,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3368,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L29">
         <v>200</v>
@@ -3383,13 +3421,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3410,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L30">
         <v>210</v>
@@ -3425,13 +3463,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3452,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L31">
         <v>220</v>
@@ -3467,13 +3505,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3494,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L32">
         <v>230</v>
@@ -3509,13 +3547,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3536,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L33">
         <v>240</v>
@@ -3551,13 +3589,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -3578,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L34">
         <v>250</v>
@@ -3620,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L35">
         <v>260</v>
@@ -3635,13 +3673,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -3662,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L36">
         <v>270</v>
@@ -3677,13 +3715,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E37">
         <v>500</v>
@@ -3704,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L37">
         <v>280</v>
@@ -3719,13 +3757,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -3746,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L38">
         <v>290</v>
@@ -3881,7 +3919,7 @@
         <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3923,7 +3961,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3959,13 +3997,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4001,13 +4039,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4211,13 +4249,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
         <v>151</v>
-      </c>
-      <c r="D11" t="s">
-        <v>152</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4253,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -4295,7 +4333,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162038E7-E416-4F5D-A36B-06B498CC98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD82934-BF8F-46B5-93C2-4BCB3BF5E70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2340" yWindow="1035" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2178,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -3804,8 +3804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>85</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD82934-BF8F-46B5-93C2-4BCB3BF5E70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85052D-C9F0-483D-8FCC-C086D8F60885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1035" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3420" yWindow="1815" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1658,51 +1658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
-☆全てのクッキーのための本☆
-・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
-・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;をかけて焼く。
-・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;をトッピング！
-・梨クッキー　・・・　クッキーの仕上げに、&lt;color=#BA9535FF&gt;梨&lt;/color&gt;を混ぜ、焼く。
-それぞれ仕上げで入れてみると.. おいしいクッキーが出来上がるよ！
-【コラム】
-・お店のキラキラトッピング5種類とさくらの花びらで、クッキーが作れるよ。
-【コラム２　やばいクッキー】
-・クッキーの仕上げに、へんな草やむらさキノコを入れると..　。
-</t>
-    <rPh sb="10" eb="12">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="262" eb="263">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="313" eb="314">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="332" eb="333">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="342" eb="343">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
 ①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;にを加えて混ぜる。砂糖水ができる。
 ②出来た液体に、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を混ぜて、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れて冷やすと、ぷるぷるに♪
@@ -1778,6 +1733,44 @@
     </rPh>
     <rPh sb="85" eb="87">
       <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クッキーのレシピ＜上級＞】
+☆全てのクッキーのための本☆
+・チーズクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
+・はちみつクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;をかけて焼く。
+・ほしのクッキー　・・・　クッキーの仕上げに&lt;color=#BA9535FF&gt;スターチップシュガー&lt;/color&gt;をトッピング！
+それぞれ仕上げで入れてみると.. おいしいクッキーが出来上がるよ！
+【コラム】
+・お店のキラキラトッピング5種類とさくらの花びらで、クッキーが作れるよ。
+【コラム２　やばいクッキー】
+・クッキーの仕上げに、へんな草やむらさキノコを入れると..　。
+</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="286" eb="287">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2178,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2650,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -3154,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L23">
         <v>90</v>
@@ -3322,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L27">
         <v>130</v>
@@ -3804,7 +3797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE85052D-C9F0-483D-8FCC-C086D8F60885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAAC8F5-0B9A-49A9-B6EA-47FE5ED57CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1815" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3495" yWindow="1605" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1354,99 +1354,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【ティラミスのレシピ】
-イタリア伝統のお菓子、ティラミスの作り方です。
-事前準備：
-・コーヒー
-・ココアクッキー
-は先に作っておきましょう。
-①&lt;color=#BA9535FF&gt;砂糖・卵黄&lt;/color&gt;を混ぜ、黄色い生地を作ります。
-②その生地に、&lt;color=#BA9535FF&gt;マルサラワイン、クリームチーズ&lt;/color&gt;をいれ、あたためながら混ぜましょう。
-ベースとなるクリーム生地ができます。
-③先に&lt;color=#BA9535FF&gt;コーヒー&lt;/color&gt;を用意しておき、&lt;color=#BA9535FF&gt;ココアクッキー&lt;/color&gt;にコーヒーを少しずつ淹れ、浸します。
-④　③のベースに、①で作った生地を流しいれ、ココアパウダーをかけたら完成です♪
-</t>
-    <rPh sb="17" eb="19">
-      <t>デントウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="285" eb="286">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="289" eb="290">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="292" eb="293">
-      <t>ヒタ</t>
-    </rPh>
-    <rPh sb="310" eb="311">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="313" eb="315">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="316" eb="317">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="333" eb="335">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>recipibook_10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1454,21 +1361,6 @@
     <t>クッキーのレシピ＜上級＞</t>
     <rPh sb="9" eb="11">
       <t>ジョウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いつものクッキーを砂糖抜きで作ると、簡単にノンシュガードロップクッキーが作れます☆
-砂糖ぬきなので、ヘルシーで太らない！
-いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
-エメラルドねこクッキーの完成です☆
-キラキラ輝く宝石の味..！　高貴な甘さに、かすかにメロンのような香りが漂います。
-☆ナッツの効果について
-見た目は変化がなさそうなナッツですが、
-&lt;color=#FDFF80FF&gt;サクサク度が少し&lt;/color&gt;上がります。
-とりあえずトッピングしておくのも悪くはない..かも？</t>
-    <rPh sb="224" eb="225">
-      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1771,6 +1663,325 @@
     </rPh>
     <rPh sb="286" eb="287">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ティラミスのレシピ】
+イタリア伝統のお菓子、ティラミスの作り方です。
+事前準備：
+・コーヒー
+・ココアクッキー
+は先に作っておきましょう。
+①&lt;color=#BA9535FF&gt;砂糖・卵黄&lt;/color&gt;を混ぜ、黄色い生地を作ります。
+②その生地に、&lt;color=#BA9535FF&gt;マルサラワイン、クリームチーズ&lt;/color&gt;をいれ、あたためながら混ぜましょう。
+ベースとなるクリーム生地ができます。
+③先に&lt;color=#BA9535FF&gt;コーヒー&lt;/color&gt;を用意しておき、&lt;color=#BA9535FF&gt;ココアクッキー&lt;/color&gt;にコーヒーを少しずつ淹れ、②で作った生地を流しいれます。
+④仕上げに、ココアパウダーをかけたら完成です♪
+</t>
+    <rPh sb="17" eb="19">
+      <t>デントウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレープのレシピ大全</t>
+    <rPh sb="8" eb="10">
+      <t>タイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クレープのレシピ大全】
+☆全てのクレープのための本☆
+少し長いですが、クレープの派生の作り方がのっております。by タカノ
+・オレンジクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;オレンジ&lt;/color&gt;
+・ぶどうクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ぶどう&lt;/color&gt;
+・ブルーベリークレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ブルーベリー&lt;/color&gt;
+・ストロベリークレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ストロベリー&lt;/color&gt;
+・魅惑のダブルベリーふわふわクレープ　・・・　まず、ストロベリークレープを作ります。さらに、仕上げに&lt;color=#BA9535FF&gt;ブルーベリー&lt;/color&gt;
+2色のゴージャスでかわいいクレープです♪
+・ベリークレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ベリー系1種類&lt;/color&gt;
+・ベリー＆ベリークレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ベリーを2種類&lt;/color&gt;のせましょう。
+・レアチーズクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;クリームチーズ&lt;/color&gt;
+・ピーチクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ピーチ&lt;/color&gt;
+・バナナクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;バナナ&lt;/color&gt;
+・さくらんぼクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;チェリー&lt;/color&gt;
+・シンプルアイスクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;
+・ミントアイスクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ミントアイス&lt;/color&gt;
+・メイプルクリームクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;メープルの樹液&lt;/color&gt;
+・ハニークリームクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;
+・ししゃもクレープ　・・・　クリームクレープの仕上げに&lt;color=#BA9535FF&gt;ししゃも&lt;/color&gt;
+★クリームなしの素朴な味わいのクレープ2種類
+焼きたてクレープの状態で、以下の仕上げをします。
+・素朴なメイプルクレープ　・・・　焼きたてクレープ生地の仕上げに&lt;color=#BA9535FF&gt;メープルの樹液&lt;/color&gt;
+・素朴なハニークレープ　・・・　焼きたてクレープ生地の仕上げに&lt;color=#BA9535FF&gt;はちみつ&lt;/color&gt;
+どのクレープも、味わい深くてよいですね。
+ぜひ挑戦して、クレープマスターになってくださいね。
+</t>
+    <rPh sb="9" eb="11">
+      <t>タイゼン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="305" eb="307">
+      <t>ミワク</t>
+    </rPh>
+    <rPh sb="341" eb="342">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="387" eb="388">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="456" eb="458">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="520" eb="522">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="951" eb="953">
+      <t>ジュエキ</t>
+    </rPh>
+    <rPh sb="1091" eb="1093">
+      <t>ソボク</t>
+    </rPh>
+    <rPh sb="1094" eb="1095">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="1103" eb="1105">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="1107" eb="1108">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="1116" eb="1118">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="1120" eb="1122">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="1123" eb="1125">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="1134" eb="1136">
+      <t>ソボク</t>
+    </rPh>
+    <rPh sb="1150" eb="1151">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="1158" eb="1160">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1187" eb="1189">
+      <t>ジュエキ</t>
+    </rPh>
+    <rPh sb="1270" eb="1271">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="1273" eb="1274">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="1285" eb="1287">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipibook_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホイップクリームのレシピ大全</t>
+    <rPh sb="12" eb="14">
+      <t>タイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ホイップクリームのレシピ大全】
+☆全てのホイップクリーム好きのための本☆
+クリームの作り方は簡単なので、種類のみをざっくりと記載しておきます。by タカノ
+・ホイップクリーム　・・・　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;を絞り袋にいれます。
+全てのお菓子の基本。
+・ブルーベリーホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;ブルーベリー&lt;/color&gt;
+・ストロベリーホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・ピーチホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;ピーチ&lt;/color&gt;
+・ラズベリーホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;ラズベリー&lt;/color&gt;
+・クランベリーホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;クランベリー&lt;/color&gt;
+・ブラックベリーホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;ブラックベリー&lt;/color&gt;
+・バナナホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;バナナ&lt;/color&gt;
+・さくらんぼホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;チェリー&lt;/color&gt;
+・カフェオレホイップ　・・・　作りたてクリームの仕上げに&lt;color=#BA9535FF&gt;コーヒー&lt;/color&gt;
+・リコッタクリームホイップ　・・・　&lt;color=#BA9535FF&gt;リコッタクリーム&lt;/color&gt;も絞り袋にいれると、ホイップとして扱うことができます。
+かなり上品なお味に仕上がることでしょう。
+</t>
+    <rPh sb="13" eb="15">
+      <t>タイゼン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="741" eb="742">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="743" eb="744">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="757" eb="758">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="771" eb="773">
+      <t>ジョウヒン</t>
+    </rPh>
+    <rPh sb="775" eb="776">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="777" eb="779">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">いつものクッキーを砂糖抜きで作ると、簡単にノンシュガードロップクッキーが作れます☆
+砂糖ぬきなので、ヘルシーで太らない！
+いつものクッキーの砂糖を、エメラルドシュガーに変えるだけで、
+エメラルドねこクッキーの完成です☆
+キラキラ輝く宝石の味..！　高貴な甘さに、かすかにメロンのような香りが漂います。
+☆ナッツの効果について
+見た目は変化がなさそうなナッツですが、
+&lt;color=#BA9535FF&gt;サクサク度が少し&lt;/color&gt;上がります。
+とりあえずトッピングしておくのも悪くはない..かも？
+</t>
+    <rPh sb="224" eb="225">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2169,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2234,7 +2445,7 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A38" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2433,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2616,13 +2827,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
         <v>177</v>
-      </c>
-      <c r="D11" t="s">
-        <v>178</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2643,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -2658,19 +2869,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="E12">
         <v>500</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2685,13 +2896,13 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="L12">
-        <v>1010</v>
+        <v>1090</v>
       </c>
       <c r="M12">
-        <v>1010</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2700,19 +2911,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="E13">
         <v>500</v>
       </c>
       <c r="F13">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2727,13 +2938,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="L13">
-        <v>1030</v>
+        <v>1100</v>
       </c>
       <c r="M13">
-        <v>1030</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2742,19 +2953,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>500</v>
       </c>
       <c r="F14">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2769,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="L14">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="M14">
-        <v>1040</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2784,19 +2995,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>500</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2811,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="L15">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="M15">
-        <v>1060</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2826,19 +3037,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>500</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2853,13 +3064,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>1040</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2868,19 +3079,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E17">
         <v>500</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2895,13 +3106,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>1060</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2910,13 +3121,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2937,13 +3148,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2952,19 +3163,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>500</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2979,13 +3190,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -2994,19 +3205,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>500</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3021,13 +3232,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L20">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3036,19 +3247,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="E21">
         <v>500</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3063,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="L21">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3078,13 +3289,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -3105,13 +3316,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="L22">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3120,13 +3331,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -3147,13 +3358,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="L23">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3162,13 +3373,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -3189,13 +3400,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="L24">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3204,13 +3415,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -3231,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="L25">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="M25">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3246,13 +3457,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -3273,13 +3484,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L26">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="M26">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3288,13 +3499,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -3315,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="L27">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="M27">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3330,13 +3541,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -3357,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="L28">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M28">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3372,13 +3583,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3399,13 +3610,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L29">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M29">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3414,13 +3625,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3441,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="L30">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="M30">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3456,13 +3667,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>500</v>
@@ -3483,13 +3694,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L31">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="M31">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3498,13 +3709,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3525,13 +3736,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="L32">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="M32">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3540,13 +3751,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3567,13 +3778,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L33">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="M33">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3582,13 +3793,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -3609,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L34">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M34">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3624,13 +3835,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -3651,13 +3862,13 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L35">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="M35">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3666,13 +3877,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -3693,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="L36">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="M36">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3708,13 +3919,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>500</v>
@@ -3735,13 +3946,13 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="L37">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="M37">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
@@ -3750,13 +3961,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -3777,12 +3988,96 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L38">
+        <v>270</v>
+      </c>
+      <c r="M38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39">
+        <v>500</v>
+      </c>
+      <c r="F39">
+        <v>150</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L39">
+        <v>280</v>
+      </c>
+      <c r="M39">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>150</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40">
         <v>290</v>
       </c>
-      <c r="M38">
+      <c r="M40">
         <v>290</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAAC8F5-0B9A-49A9-B6EA-47FE5ED57CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CEFAE9-53DB-4609-8369-C1BDE95CA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="1605" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3405" yWindow="1620" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1983,6 +1983,139 @@
     <rPh sb="224" eb="225">
       <t>ア</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀のねこクッキーのレシピ</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_neko_cookie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金のねこクッキーのレシピ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gold_neko_cookie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【銀のねこクッキーのレシピ】
+古びた文字でかかれている。
+小麦粉×バター×&lt;color=#BA9535FF&gt;銀の砂糖&lt;/color&gt;
+2:1:1で、混ぜると、おいしいクッキーができるらしいぜ..。
+銀の砂糖は、貴重品らしいからな..。
+特別な猫のショップを覗いてみると、
+いいらしいぜ..。
+</t>
+    <rPh sb="16" eb="17">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>キチョウヒン</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ネコ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【金のねこクッキーのレシピ】
+古びた文字でかかれている。
+小麦粉×バター×&lt;color=#BA9535FF&gt;金の砂糖&lt;/color&gt;
+2:1:1で、混ぜると、
+まさに、見た目豪華な金色クッキーができます。
+金の砂糖は、貴重品ですが、
+猫族が集めているといううわさ・・。
+</t>
+    <rPh sb="1" eb="2">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="114" eb="117">
+      <t>キチョウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/neko_cookie_silver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/neko_cookie_gold</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2380,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2445,7 +2578,7 @@
     </row>
     <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4045,13 +4178,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -4072,13 +4205,97 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L40">
         <v>290</v>
       </c>
       <c r="M40">
         <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41">
+        <v>150</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L41">
+        <v>300</v>
+      </c>
+      <c r="M41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42">
+        <v>500</v>
+      </c>
+      <c r="F42">
+        <v>150</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>9000</v>
+      </c>
+      <c r="M42">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CEFAE9-53DB-4609-8369-C1BDE95CA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23497C7C-093E-44D8-BA4D-6AD496A5BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1620" windowWidth="24240" windowHeight="13770" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3285" yWindow="2340" windowWidth="23415" windowHeight="13110" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2515,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4309,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23497C7C-093E-44D8-BA4D-6AD496A5BBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F15134-1B3E-4AAA-843B-D70C5687E233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2340" windowWidth="23415" windowHeight="13110" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="4155" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -895,26 +895,6 @@
   </si>
   <si>
     <t>recipibook_9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【クッキーのレシピ＜初級＞】
-☆初心者にオススメのクッキー 3選☆
-その１　～　味わい深いねこクッキー　～
-①まずは、&lt;color=#FDFF80FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜて、＜アパレイユ＞を作ります。
-②できたてアパレイユに、小麦粉を混ぜて、焼きましょう♪　たまごいりの、濃厚なクッキーの完成です。
-その２　～　焦がしねこクッキー　～
-①まずは、&lt;color=#FF5CA1FF&gt;小さな鍋&lt;/color&gt;を用意し、&lt;color=#FDFF80FF&gt;バター&lt;/color&gt;を溶かします。
-②普段作るねこクッキーの、&lt;color=#FDFF80FF&gt;バター&lt;/color&gt;を、&lt;color=#FDFF80FF&gt;焦がしバター&lt;/color&gt;に変えてみましょう。
-味にコクのある、焦がしねこクッキーの出来上がり♪
-その３　～　森のシュガーバター　～
-①まずは、ノーマルなねこクッキーを作ります。
-②仕上げに&lt;color=#FDFF80FF&gt;ホイップクリーム&lt;/color&gt;を用意し、作ったクッキーでサンドしましょう。
-サクサクで、中はふわふわ♪　シュガーバタークッキーの出来上がり！
-</t>
-    <rPh sb="10" eb="12">
-      <t>ショキュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2116,6 +2096,25 @@
   </si>
   <si>
     <t>Items/neko_cookie_gold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【クッキーのレシピ＜初級＞】
+☆初心者にオススメのクッキー 3選☆
+その１　～　味わい深いねこクッキー　～
+①まずは、&lt;color=#BA9535FF&gt;砂糖・たまご・バター&lt;/color&gt;を混ぜて、＜アパレイユ＞を作ります。
+②できたてアパレイユに、小麦粉を混ぜて、焼きましょう♪　たまごいりの、濃厚なクッキーの完成です。
+その２　～　焦がしねこクッキー　～
+①まずは、&lt;color=#FF5CA1FF&gt;小さな鍋&lt;/color&gt;を用意し、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を溶かします。
+②普段作るねこクッキーの、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を、&lt;color=#BA9535FF&gt;焦がしバター&lt;/color&gt;に変えてみましょう。
+味にコクのある、焦がしねこクッキーの出来上がり♪
+その３　～　森のシュガーバター　～
+①まずは、ノーマルなねこクッキーを作ります。
+②仕上げに&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;を用意し、作ったクッキーでサンドしましょう。
+サクサクで、中はふわふわ♪　シュガーバタークッキーの出来上がり！</t>
+    <rPh sb="10" eb="12">
+      <t>ショキュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2515,11 +2514,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="302.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2535,7 +2534,7 @@
     <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2576,7 +2575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
@@ -2618,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2660,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2702,7 +2701,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2744,7 +2743,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2777,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2786,7 +2785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2828,7 +2827,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2870,7 +2869,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2882,7 +2881,7 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2903,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L9">
         <v>1050</v>
@@ -2912,7 +2911,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2945,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="L10">
         <v>1070</v>
@@ -2954,19 +2953,19 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
         <v>176</v>
-      </c>
-      <c r="D11" t="s">
-        <v>177</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -2987,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -2996,19 +2995,19 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -3029,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L12">
         <v>1090</v>
@@ -3038,19 +3037,19 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
         <v>193</v>
-      </c>
-      <c r="D13" t="s">
-        <v>194</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -3071,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L13">
         <v>1100</v>
@@ -3080,7 +3079,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3113,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14">
         <v>1010</v>
@@ -3122,7 +3121,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3164,7 +3163,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3197,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L16">
         <v>1040</v>
@@ -3206,7 +3205,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3248,7 +3247,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3290,7 +3289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3332,7 +3331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3344,7 +3343,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -3374,19 +3373,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
         <v>166</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" t="s">
-        <v>167</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -3407,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -3416,7 +3415,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3458,7 +3457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3500,7 +3499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3542,7 +3541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3554,7 +3553,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -3575,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -3584,7 +3583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3626,7 +3625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3668,7 +3667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3710,19 +3709,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3743,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -3752,19 +3751,19 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3785,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L30">
         <v>140</v>
@@ -3794,13 +3793,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3827,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -3836,19 +3835,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3869,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L32">
         <v>210</v>
@@ -3878,19 +3877,19 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3911,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L33">
         <v>220</v>
@@ -3920,19 +3919,19 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -3953,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34">
         <v>230</v>
@@ -3962,19 +3961,19 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -3995,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L35">
         <v>240</v>
@@ -4004,19 +4003,19 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -4037,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L36">
         <v>250</v>
@@ -4046,7 +4045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4079,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L37">
         <v>260</v>
@@ -4088,19 +4087,19 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
         <v>169</v>
-      </c>
-      <c r="D38" t="s">
-        <v>170</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -4121,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -4130,19 +4129,19 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>500</v>
@@ -4163,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -4172,19 +4171,19 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -4205,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -4214,19 +4213,19 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -4247,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -4256,19 +4255,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
         <v>179</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
       </c>
       <c r="E42">
         <v>500</v>
@@ -4289,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42">
         <v>9000</v>
@@ -4309,7 +4308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4355,7 +4354,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -4376,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -4403,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -4418,13 +4417,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4460,13 +4459,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4502,13 +4501,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4544,13 +4543,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4586,7 +4585,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>80</v>
@@ -4628,7 +4627,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -4670,13 +4669,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4712,7 +4711,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -4754,13 +4753,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>151</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4796,13 +4795,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4838,13 +4837,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F15134-1B3E-4AAA-843B-D70C5687E233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585BA5F8-4AC3-4078-A8AC-D8175DDB434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2340" windowWidth="23310" windowHeight="12705" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3225" yWindow="1935" windowWidth="23310" windowHeight="12705" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="208">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -2114,6 +2114,69 @@
 サクサクで、中はふわふわ♪　シュガーバタークッキーの出来上がり！</t>
     <rPh sb="10" eb="12">
       <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックチョコレートのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>black_chocolate_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ブラックチョコレートのレシピ】
+①カカオ豆　→　ロースト　豆焼きスキルを使う
+カカオニブ（豆を焼いて殻をむいたもの）　ができる。
+②カカオニブと砂糖をまぜる。　＋　豆の粉砕機
+③溶けたカカオ＜カカオマス＞　→　テンパリング
+50°　→　26°　→　31°
+31°は超えてはいけない
+④液体チョコレート　→　ふりーじんぐor氷室
+ブラックチョコレート完成！
+</t>
+    <rPh sb="22" eb="23">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>マメヤ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>フンサイキ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ヒムロ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2512,13 +2575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="302.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2534,7 +2597,7 @@
     <col min="13" max="13" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2575,7 +2638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
         <v>0</v>
@@ -2617,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2659,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2701,7 +2764,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2743,7 +2806,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2785,7 +2848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2827,7 +2890,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2869,7 +2932,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2911,7 +2974,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2953,7 +3016,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2995,7 +3058,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3037,7 +3100,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3079,7 +3142,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3121,7 +3184,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3163,7 +3226,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3205,7 +3268,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3247,7 +3310,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3289,7 +3352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3331,7 +3394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3373,7 +3436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3415,7 +3478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3457,7 +3520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3499,7 +3562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3541,7 +3604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3583,7 +3646,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3625,7 +3688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3667,7 +3730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3709,7 +3772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3751,7 +3814,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3793,7 +3856,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3835,7 +3898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3877,7 +3940,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3919,7 +3982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3961,7 +4024,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4003,7 +4066,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4045,7 +4108,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4087,7 +4150,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4129,7 +4192,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4171,7 +4234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4213,7 +4276,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4255,19 +4318,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="302.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" ht="306.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="E42">
         <v>500</v>
@@ -4288,12 +4351,53 @@
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42">
+        <v>310</v>
+      </c>
+      <c r="M42">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>10000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>150</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <v>9000</v>
       </c>
-      <c r="M42">
+      <c r="M43">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_eventItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585BA5F8-4AC3-4078-A8AC-D8175DDB434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E837D-7CBF-4459-87E0-588090183F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3225" yWindow="1935" windowWidth="23310" windowHeight="12705" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
@@ -2128,8 +2128,10 @@
   <si>
     <t xml:space="preserve">【ブラックチョコレートのレシピ】
 ①カカオ豆　→　ロースト　豆焼きスキルを使う
-カカオニブ（豆を焼いて殻をむいたもの）　ができる。
-②カカオニブと砂糖をまぜる。　＋　豆の粉砕機
+焼いた豆の殻むき　→　カカオニブができる。
+②カカオニブと砂糖をまぜる。
+＋　豆の粉砕機
+豆をつぶしながらまぜる。
 ③溶けたカカオ＜カカオマス＞　→　テンパリング
 50°　→　26°　→　31°
 31°は超えてはいけない
@@ -2145,37 +2147,37 @@
     <rPh sb="38" eb="39">
       <t>ツカ</t>
     </rPh>
-    <rPh sb="48" eb="49">
+    <rPh sb="42" eb="43">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
       <t>マメ</t>
     </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
+    <rPh sb="72" eb="74">
       <t>サトウ</t>
     </rPh>
-    <rPh sb="86" eb="87">
+    <rPh sb="82" eb="83">
       <t>マメ</t>
     </rPh>
-    <rPh sb="88" eb="91">
+    <rPh sb="84" eb="87">
       <t>フンサイキ</t>
     </rPh>
-    <rPh sb="94" eb="95">
+    <rPh sb="89" eb="90">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
       <t>ト</t>
     </rPh>
-    <rPh sb="138" eb="139">
+    <rPh sb="148" eb="149">
       <t>コ</t>
     </rPh>
-    <rPh sb="149" eb="151">
+    <rPh sb="159" eb="161">
       <t>エキタイ</t>
     </rPh>
-    <rPh sb="168" eb="170">
+    <rPh sb="178" eb="180">
       <t>ヒムロ</t>
     </rPh>
-    <rPh sb="182" eb="184">
+    <rPh sb="192" eb="194">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2578,7 +2580,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
